--- a/Dati INFN-ISS/Italia/Rapporti/Deceduti-ti.xlsx
+++ b/Dati INFN-ISS/Italia/Rapporti/Deceduti-ti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Downloads/INFN-ISS-main/Dati INFN-ISS/Italia/Rapporti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64887813-79D4-1B4E-B552-C2DD2D5FBF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB65A6B-4139-7C41-949E-8512DF55A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16020" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="24">
   <si>
     <t>Giorno</t>
   </si>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:K575"/>
   <sheetViews>
-    <sheetView topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="A568" sqref="A568"/>
+    <sheetView topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="A567" sqref="A567:A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2568,7 +2568,7 @@
         <v>44131</v>
       </c>
       <c r="B252">
-        <v>0.39102031120085501</v>
+        <v>0.39097387173396603</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>44132</v>
       </c>
       <c r="B253">
-        <v>0.392397795130914</v>
+        <v>0.39235273854633101</v>
       </c>
       <c r="G253" s="2"/>
       <c r="I253" s="2"/>
@@ -2586,7 +2586,7 @@
         <v>44133</v>
       </c>
       <c r="B254">
-        <v>0.39438189722438899</v>
+        <v>0.39433794025858199</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
         <v>44134</v>
       </c>
       <c r="B255">
-        <v>0.39754891421199701</v>
+        <v>0.39750618080189098</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,7 +2602,7 @@
         <v>44135</v>
       </c>
       <c r="B256">
-        <v>0.39958398335933398</v>
+        <v>0.39954242928452499</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>44136</v>
       </c>
       <c r="B257">
-        <v>0.40160642570281102</v>
+        <v>0.40156610782049901</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -2618,7 +2618,7 @@
         <v>44137</v>
       </c>
       <c r="B258">
-        <v>0.40448009390589801</v>
+        <v>0.40444053208137698</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -2626,7 +2626,7 @@
         <v>44138</v>
       </c>
       <c r="B259">
-        <v>0.40496657115568202</v>
+        <v>0.40492789609397301</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>44139</v>
       </c>
       <c r="B260">
-        <v>0.40753617741026099</v>
+        <v>0.40749788593441699</v>
       </c>
       <c r="G260" s="2"/>
       <c r="I260" s="2"/>
@@ -2644,7 +2644,7 @@
         <v>44140</v>
       </c>
       <c r="B261">
-        <v>0.40854843186233603</v>
+        <v>0.40851063829787199</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
         <v>44141</v>
       </c>
       <c r="B262">
-        <v>0.40958605664488001</v>
+        <v>0.40954887900517301</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>44142</v>
       </c>
       <c r="B263">
-        <v>0.40944741532976803</v>
+        <v>0.409410925942429</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -2668,7 +2668,7 @@
         <v>44143</v>
       </c>
       <c r="B264">
-        <v>0.41057556497175102</v>
+        <v>0.41053932385912201</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -2676,7 +2676,7 @@
         <v>44144</v>
       </c>
       <c r="B265">
-        <v>0.41183648566198899</v>
+        <v>0.41180059264423902</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
         <v>44145</v>
       </c>
       <c r="B266">
-        <v>0.41448222164547099</v>
+        <v>0.41444636678200603</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>44146</v>
       </c>
       <c r="B267">
-        <v>0.41602491996192698</v>
+        <v>0.41598892541962201</v>
       </c>
       <c r="G267" s="2"/>
       <c r="I267" s="2"/>
@@ -2702,7 +2702,7 @@
         <v>44147</v>
       </c>
       <c r="B268">
-        <v>0.41686061546418401</v>
+        <v>0.41682468539906897</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -2710,7 +2710,7 @@
         <v>44148</v>
       </c>
       <c r="B269">
-        <v>0.41914049016223598</v>
+        <v>0.41910432306497503</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>44149</v>
       </c>
       <c r="B270">
-        <v>0.42024857586742598</v>
+        <v>0.42021230689565803</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -2726,7 +2726,7 @@
         <v>44150</v>
       </c>
       <c r="B271">
-        <v>0.42237798546209698</v>
+        <v>0.422341438089469</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,7 +2734,7 @@
         <v>44151</v>
       </c>
       <c r="B272">
-        <v>0.42318012637410102</v>
+        <v>0.42314350008655</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>44152</v>
       </c>
       <c r="B273">
-        <v>0.42414511369553898</v>
+        <v>0.42410830512887199</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>44153</v>
       </c>
       <c r="B274">
-        <v>0.42578671328671303</v>
+        <v>0.42574949742155399</v>
       </c>
       <c r="G274" s="2"/>
       <c r="I274" s="2"/>
@@ -2760,7 +2760,7 @@
         <v>44154</v>
       </c>
       <c r="B275">
-        <v>0.42739027179171402</v>
+        <v>0.42735268249780101</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>44155</v>
       </c>
       <c r="B276">
-        <v>0.42674988854213097</v>
+        <v>0.42671184022824499</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -2776,7 +2776,7 @@
         <v>44156</v>
       </c>
       <c r="B277">
-        <v>0.42917795844625101</v>
+        <v>0.42913919248486998</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
         <v>44157</v>
       </c>
       <c r="B278">
-        <v>0.43067765567765498</v>
+        <v>0.43063821994322798</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>44158</v>
       </c>
       <c r="B279">
-        <v>0.43226646818012598</v>
+        <v>0.43222625360498601</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,7 +2800,7 @@
         <v>44159</v>
       </c>
       <c r="B280">
-        <v>0.43454752418895798</v>
+        <v>0.43450630750260799</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -2808,7 +2808,7 @@
         <v>44160</v>
       </c>
       <c r="B281">
-        <v>0.43837332562397602</v>
+        <v>0.43833108498747297</v>
       </c>
       <c r="G281" s="2"/>
       <c r="I281" s="2"/>
@@ -2818,7 +2818,7 @@
         <v>44161</v>
       </c>
       <c r="B282">
-        <v>0.44090240313879298</v>
+        <v>0.44085916045508</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -2826,7 +2826,7 @@
         <v>44162</v>
       </c>
       <c r="B283">
-        <v>0.44174902665468702</v>
+        <v>0.44170493112397602</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,7 +2834,7 @@
         <v>44163</v>
       </c>
       <c r="B284">
-        <v>0.44381049414161999</v>
+        <v>0.44376528117359398</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>44164</v>
       </c>
       <c r="B285">
-        <v>0.44321733694519599</v>
+        <v>0.44317116366288101</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -2850,7 +2850,7 @@
         <v>44165</v>
       </c>
       <c r="B286">
-        <v>0.44538886527836802</v>
+        <v>0.44534154892170402</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -3546,7 +3546,7 @@
         <v>44249</v>
       </c>
       <c r="B370">
-        <v>0.38954518606024802</v>
+        <v>0.38948767163738301</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>44250</v>
       </c>
       <c r="B371">
-        <v>0.38751981553537901</v>
+        <v>0.38746397694524498</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -3562,7 +3562,7 @@
         <v>44251</v>
       </c>
       <c r="B372">
-        <v>0.386530843237125</v>
+        <v>0.38647616353090902</v>
       </c>
       <c r="G372" s="2"/>
       <c r="I372" s="2"/>
@@ -3572,7 +3572,7 @@
         <v>44252</v>
       </c>
       <c r="B373">
-        <v>0.38609877913429502</v>
+        <v>0.38604522125121299</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>44253</v>
       </c>
       <c r="B374">
-        <v>0.38381518508511198</v>
+        <v>0.38376333918681599</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
         <v>44254</v>
       </c>
       <c r="B375">
-        <v>0.38483811529349798</v>
+        <v>0.384787472035794</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>44255</v>
       </c>
       <c r="B376">
-        <v>0.38118619976741103</v>
+        <v>0.38113695090439198</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
         <v>44256</v>
       </c>
       <c r="B377">
-        <v>0.38122944599038699</v>
+        <v>0.38118123181990599</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
         <v>44257</v>
       </c>
       <c r="B378">
-        <v>0.379221099334483</v>
+        <v>0.37917436845348101</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>44258</v>
       </c>
       <c r="B379">
-        <v>0.377960367327211</v>
+        <v>0.37791470339494898</v>
       </c>
       <c r="G379" s="2"/>
       <c r="I379" s="2"/>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="B380">
-        <v>0.37645521501544299</v>
+        <v>0.37641050005938897</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>44260</v>
       </c>
       <c r="B381">
-        <v>0.37516049959145498</v>
+        <v>0.37511671335200703</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>44261</v>
       </c>
       <c r="B382">
-        <v>0.37627741416924998</v>
+        <v>0.37623421354764602</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>44262</v>
       </c>
       <c r="B383">
-        <v>0.37449025826914301</v>
+        <v>0.37444784233775003</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -3662,7 +3662,7 @@
         <v>44263</v>
       </c>
       <c r="B384">
-        <v>0.37447187013564598</v>
+        <v>0.37443023902167799</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -3670,7 +3670,7 @@
         <v>44264</v>
       </c>
       <c r="B385">
-        <v>0.37192600652883501</v>
+        <v>0.37188554020237102</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -3678,7 +3678,7 @@
         <v>44265</v>
       </c>
       <c r="B386">
-        <v>0.37261009667024703</v>
+        <v>0.37257007840188999</v>
       </c>
       <c r="G386" s="2"/>
       <c r="I386" s="2"/>
@@ -3688,7 +3688,7 @@
         <v>44266</v>
       </c>
       <c r="B387">
-        <v>0.37300743889479199</v>
+        <v>0.37296780363404503</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -3696,7 +3696,7 @@
         <v>44267</v>
       </c>
       <c r="B388">
-        <v>0.37214180826515603</v>
+        <v>0.37210277923439899</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -3704,7 +3704,7 @@
         <v>44268</v>
       </c>
       <c r="B389">
-        <v>0.36998652710125401</v>
+        <v>0.36994818652849698</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>44269</v>
       </c>
       <c r="B390">
-        <v>0.36911855352373102</v>
+        <v>0.36908063687724701</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>44270</v>
       </c>
       <c r="B391">
-        <v>0.36789743589743501</v>
+        <v>0.367859706696749</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -3728,7 +3728,7 @@
         <v>44271</v>
       </c>
       <c r="B392">
-        <v>0.36655130293159599</v>
+        <v>0.366513994910941</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>44272</v>
       </c>
       <c r="B393">
-        <v>0.36697154471544702</v>
+        <v>0.36689697216013001</v>
       </c>
       <c r="G393" s="2"/>
       <c r="I393" s="2"/>
@@ -3746,7 +3746,7 @@
         <v>44273</v>
       </c>
       <c r="B394">
-        <v>0.36708603896103897</v>
+        <v>0.36701156421180697</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
         <v>44274</v>
       </c>
       <c r="B395">
-        <v>0.36888843523527598</v>
+        <v>0.36881314419838701</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
         <v>44275</v>
       </c>
       <c r="B396">
-        <v>0.36992203528929002</v>
+        <v>0.369884090675966</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>44276</v>
       </c>
       <c r="B397">
-        <v>0.369923727066584</v>
+        <v>0.36988560239101298</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -3778,7 +3778,7 @@
         <v>44277</v>
       </c>
       <c r="B398">
-        <v>0.37010970813496102</v>
+        <v>0.37007140639552899</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>44278</v>
       </c>
       <c r="B399">
-        <v>0.37181503617489697</v>
+        <v>0.37177605368001598</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -3794,7 +3794,7 @@
         <v>44279</v>
       </c>
       <c r="B400">
-        <v>0.37509266123054102</v>
+        <v>0.37505294366793701</v>
       </c>
       <c r="G400" s="2"/>
       <c r="I400" s="2"/>
@@ -3804,7 +3804,7 @@
         <v>44280</v>
       </c>
       <c r="B401">
-        <v>0.37725959995721398</v>
+        <v>0.37721925133689799</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>44281</v>
       </c>
       <c r="B402">
-        <v>0.38084415584415499</v>
+        <v>0.38091115680121201</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
         <v>44282</v>
       </c>
       <c r="B403">
-        <v>0.38540866703236398</v>
+        <v>0.385476086002632</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>44283</v>
       </c>
       <c r="B404">
-        <v>0.38726968174204301</v>
+        <v>0.38738135120044598</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>44284</v>
       </c>
       <c r="B405">
-        <v>0.38824728260869501</v>
+        <v>0.38840448420337398</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>44285</v>
       </c>
       <c r="B406">
-        <v>0.39136973623322502</v>
+        <v>0.39153071850052001</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>44286</v>
       </c>
       <c r="B407">
-        <v>0.39224239566140001</v>
+        <v>0.39245283018867899</v>
       </c>
       <c r="G407" s="2"/>
       <c r="I407" s="2"/>
@@ -3862,7 +3862,7 @@
         <v>44287</v>
       </c>
       <c r="B408">
-        <v>0.39473051010587101</v>
+        <v>0.39494584837545099</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>44288</v>
       </c>
       <c r="B409">
-        <v>0.39913633559531098</v>
+        <v>0.39935826237196098</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>44289</v>
       </c>
       <c r="B410">
-        <v>0.40030345176381299</v>
+        <v>0.40053117490830897</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
         <v>44290</v>
       </c>
       <c r="B411">
-        <v>0.40395297765146598</v>
+        <v>0.40418658741439401</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>44291</v>
       </c>
       <c r="B412">
-        <v>0.407015221707478</v>
+        <v>0.407201482658194</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
         <v>44292</v>
       </c>
       <c r="B413">
-        <v>0.41055358603763198</v>
+        <v>0.41074594299740802</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>44293</v>
       </c>
       <c r="B414">
-        <v>0.41485203796761499</v>
+        <v>0.41499162479061902</v>
       </c>
       <c r="G414" s="2"/>
       <c r="I414" s="2"/>
@@ -3920,7 +3920,7 @@
         <v>44294</v>
       </c>
       <c r="B415">
-        <v>0.41776127926898898</v>
+        <v>0.41804683038263801</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>44295</v>
       </c>
       <c r="B416">
-        <v>0.42106803218727101</v>
+        <v>0.42150694952450601</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -3936,7 +3936,7 @@
         <v>44296</v>
       </c>
       <c r="B417">
-        <v>0.423186664664364</v>
+        <v>0.42363718276017398</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
         <v>44297</v>
       </c>
       <c r="B418">
-        <v>0.42626728110598999</v>
+        <v>0.426728110599078</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>44298</v>
       </c>
       <c r="B419">
-        <v>0.43198090692124103</v>
+        <v>0.43252705283259002</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>44299</v>
       </c>
       <c r="B420">
-        <v>0.439973614775725</v>
+        <v>0.440540986310407</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
         <v>44300</v>
       </c>
       <c r="B421">
-        <v>0.44141689373296999</v>
+        <v>0.44200306591721999</v>
       </c>
       <c r="G421" s="2"/>
       <c r="I421" s="2"/>
@@ -3978,7 +3978,7 @@
         <v>44301</v>
       </c>
       <c r="B422">
-        <v>0.444210526315789</v>
+        <v>0.44481487980347401</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>44302</v>
       </c>
       <c r="B423">
-        <v>0.45244169096209902</v>
+        <v>0.45298833819241902</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
         <v>44303</v>
       </c>
       <c r="B424">
-        <v>0.45817633760361698</v>
+        <v>0.458741522230595</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
@@ -4002,7 +4002,7 @@
         <v>44304</v>
       </c>
       <c r="B425">
-        <v>0.46255592297218401</v>
+        <v>0.46304939712174198</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>44305</v>
       </c>
       <c r="B426">
-        <v>0.46692060946271002</v>
+        <v>0.46753507014028001</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -4018,7 +4018,7 @@
         <v>44306</v>
       </c>
       <c r="B427">
-        <v>0.47567567567567498</v>
+        <v>0.47650727650727598</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>44307</v>
       </c>
       <c r="B428">
-        <v>0.48031664527171503</v>
+        <v>0.48127541194093698</v>
       </c>
       <c r="G428" s="2"/>
       <c r="I428" s="2"/>
@@ -4036,7 +4036,7 @@
         <v>44308</v>
       </c>
       <c r="B429">
-        <v>0.48252363156737699</v>
+        <v>0.483509234828496</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>44309</v>
       </c>
       <c r="B430">
-        <v>0.482688848920863</v>
+        <v>0.48369687429727898</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
         <v>44310</v>
       </c>
       <c r="B431">
-        <v>0.48669467787114801</v>
+        <v>0.48762838468720798</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
         <v>44311</v>
       </c>
       <c r="B432">
-        <v>0.490333494441759</v>
+        <v>0.49130014499758301</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -4068,7 +4068,7 @@
         <v>44312</v>
       </c>
       <c r="B433">
-        <v>0.494760479041916</v>
+        <v>0.495758483033932</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>44313</v>
       </c>
       <c r="B434">
-        <v>0.49807445442875398</v>
+        <v>0.49910141206675201</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -4084,7 +4084,7 @@
         <v>44314</v>
       </c>
       <c r="B435">
-        <v>0.498545358370801</v>
+        <v>0.49960327955567302</v>
       </c>
       <c r="G435" s="2"/>
       <c r="I435" s="2"/>
@@ -4094,7 +4094,7 @@
         <v>44315</v>
       </c>
       <c r="B436">
-        <v>0.49403147042864798</v>
+        <v>0.49511665762343998</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>44316</v>
       </c>
       <c r="B437">
-        <v>0.49566190876014499</v>
+        <v>0.49650153932269803</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>44317</v>
       </c>
       <c r="B438">
-        <v>0.49492312155497498</v>
+        <v>0.49579344357412197</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>44318</v>
       </c>
       <c r="B439">
-        <v>0.493875112040633</v>
+        <v>0.494623655913978</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>44319</v>
       </c>
       <c r="B440">
-        <v>0.497847478474784</v>
+        <v>0.49861666154319001</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>44320</v>
       </c>
       <c r="B441">
-        <v>0.49826004428978099</v>
+        <v>0.49889345558014497</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>44321</v>
       </c>
       <c r="B442">
-        <v>0.49935358758888099</v>
+        <v>0.49983855343881101</v>
       </c>
       <c r="G442" s="2"/>
       <c r="I442" s="2"/>
@@ -4152,7 +4152,7 @@
         <v>44322</v>
       </c>
       <c r="B443">
-        <v>0.49735099337748301</v>
+        <v>0.49768518518518501</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -4160,7 +4160,7 @@
         <v>44323</v>
       </c>
       <c r="B444">
-        <v>0.494351249572064</v>
+        <v>0.49470085470085401</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
         <v>44324</v>
       </c>
       <c r="B445">
-        <v>0.495</v>
+        <v>0.49536376604850202</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -4176,7 +4176,7 @@
         <v>44325</v>
       </c>
       <c r="B446">
-        <v>0.49226234340456798</v>
+        <v>0.49264164827078699</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -4184,7 +4184,7 @@
         <v>44326</v>
       </c>
       <c r="B447">
-        <v>0.491402369124952</v>
+        <v>0.49198473282442701</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>44327</v>
       </c>
       <c r="B448">
-        <v>0.49130434782608601</v>
+        <v>0.49190682984603201</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>44328</v>
       </c>
       <c r="B449">
-        <v>0.48625359048009797</v>
+        <v>0.487084870848708</v>
       </c>
       <c r="G449" s="2"/>
       <c r="I449" s="2"/>
@@ -4210,7 +4210,7 @@
         <v>44329</v>
       </c>
       <c r="B450">
-        <v>0.48793906051629199</v>
+        <v>0.48837209302325502</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,7 +4218,7 @@
         <v>44330</v>
       </c>
       <c r="B451">
-        <v>0.48892825509300197</v>
+        <v>0.488938053097345</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -4226,7 +4226,7 @@
         <v>44331</v>
       </c>
       <c r="B452">
-        <v>0.48728617660656498</v>
+        <v>0.48729792147806</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -4234,7 +4234,7 @@
         <v>44332</v>
       </c>
       <c r="B453">
-        <v>0.48720424915499699</v>
+        <v>0.48721659430776598</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
         <v>44333</v>
       </c>
       <c r="B454">
-        <v>0.48706240487062402</v>
+        <v>0.48682877406281599</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -4250,7 +4250,7 @@
         <v>44334</v>
       </c>
       <c r="B455">
-        <v>0.48195329087048799</v>
+        <v>0.48171701112877502</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -4258,7 +4258,7 @@
         <v>44335</v>
       </c>
       <c r="B456">
-        <v>0.48233995584988898</v>
+        <v>0.48209366391184499</v>
       </c>
       <c r="G456" s="2"/>
       <c r="I456" s="2"/>
@@ -4268,7 +4268,7 @@
         <v>44336</v>
       </c>
       <c r="B457">
-        <v>0.48359240069084602</v>
+        <v>0.483333333333333</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>44337</v>
       </c>
       <c r="B458">
-        <v>0.47802197802197799</v>
+        <v>0.47804878048780403</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>44338</v>
       </c>
       <c r="B459">
-        <v>0.479371316306483</v>
+        <v>0.47939829954218399</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
         <v>44339</v>
       </c>
       <c r="B460">
-        <v>0.47658402203856698</v>
+        <v>0.47694425326909801</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>44341</v>
       </c>
       <c r="B462">
-        <v>0.474290099769762</v>
+        <v>0.47356321839080401</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>44342</v>
       </c>
       <c r="B463">
-        <v>0.46794871794871701</v>
+        <v>0.4672</v>
       </c>
       <c r="G463" s="2"/>
       <c r="I463" s="2"/>
@@ -4326,7 +4326,7 @@
         <v>44343</v>
       </c>
       <c r="B464">
-        <v>0.46605196982397301</v>
+        <v>0.46527196652719599</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <v>44344</v>
       </c>
       <c r="B465">
-        <v>0.46797153024910998</v>
+        <v>0.46714031971580799</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -4342,7 +4342,7 @@
         <v>44345</v>
       </c>
       <c r="B466">
-        <v>0.46869244935543197</v>
+        <v>0.46783088235294101</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>44346</v>
       </c>
       <c r="B467">
-        <v>0.47211538461538399</v>
+        <v>0.47120921305182301</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
         <v>44347</v>
       </c>
       <c r="B468">
-        <v>0.46998982706002002</v>
+        <v>0.46855983772819398</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
         <v>44348</v>
       </c>
       <c r="B469">
-        <v>0.46817691477885598</v>
+        <v>0.46666666666666601</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -4374,7 +4374,7 @@
         <v>44349</v>
       </c>
       <c r="B470">
-        <v>0.46375143843498201</v>
+        <v>0.46330275229357798</v>
       </c>
       <c r="G470" s="2"/>
       <c r="I470" s="2"/>
@@ -4384,7 +4384,7 @@
         <v>44350</v>
       </c>
       <c r="B471">
-        <v>0.46483909415971397</v>
+        <v>0.464370546318289</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -4392,7 +4392,7 @@
         <v>44351</v>
       </c>
       <c r="B472">
-        <v>0.46289308176100602</v>
+        <v>0.46240601503759399</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <v>44352</v>
       </c>
       <c r="B473">
-        <v>0.46010638297872303</v>
+        <v>0.45960264900662201</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -4408,7 +4408,7 @@
         <v>44353</v>
       </c>
       <c r="B474">
-        <v>0.45261669024045198</v>
+        <v>0.45211267605633798</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -4416,7 +4416,7 @@
         <v>44354</v>
       </c>
       <c r="B475">
-        <v>0.45</v>
+        <v>0.449487554904831</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -4424,7 +4424,7 @@
         <v>44355</v>
       </c>
       <c r="B476">
-        <v>0.439560439560439</v>
+        <v>0.43974960876369301</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>44356</v>
       </c>
       <c r="B477">
-        <v>0.43355481727574702</v>
+        <v>0.43377483443708598</v>
       </c>
       <c r="G477" s="2"/>
       <c r="I477" s="2"/>
@@ -4442,7 +4442,7 @@
         <v>44357</v>
       </c>
       <c r="B478">
-        <v>0.42564102564102502</v>
+        <v>0.426621160409556</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -4450,7 +4450,7 @@
         <v>44358</v>
       </c>
       <c r="B479">
-        <v>0.43672014260249498</v>
+        <v>0.43772241992882499</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -4458,7 +4458,7 @@
         <v>44359</v>
       </c>
       <c r="B480">
-        <v>0.43126177024482099</v>
+        <v>0.43233082706766901</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>44360</v>
       </c>
       <c r="B481">
-        <v>0.44129554655870401</v>
+        <v>0.442424242424242</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -4474,7 +4474,7 @@
         <v>44361</v>
       </c>
       <c r="B482">
-        <v>0.44327731092436901</v>
+        <v>0.44444444444444398</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -4482,7 +4482,7 @@
         <v>44362</v>
       </c>
       <c r="B483">
-        <v>0.44395604395604299</v>
+        <v>0.445175438596491</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -4490,7 +4490,7 @@
         <v>44363</v>
       </c>
       <c r="B484">
-        <v>0.45102505694760803</v>
+        <v>0.45227272727272699</v>
       </c>
       <c r="G484" s="2"/>
       <c r="I484" s="2"/>
@@ -4500,7 +4500,7 @@
         <v>44364</v>
       </c>
       <c r="B485">
-        <v>0.45278450363196099</v>
+        <v>0.45410628019323601</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
         <v>44365</v>
       </c>
       <c r="B486">
-        <v>0.44387755102040799</v>
+        <v>0.44670050761421298</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -4516,7 +4516,7 @@
         <v>44366</v>
       </c>
       <c r="B487">
-        <v>0.44235924932975801</v>
+        <v>0.44533333333333303</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>44367</v>
       </c>
       <c r="B488">
-        <v>0.44568245125348099</v>
+        <v>0.448753462603878</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -4532,7 +4532,7 @@
         <v>44368</v>
       </c>
       <c r="B489">
-        <v>0.43874643874643798</v>
+        <v>0.44350282485875703</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -4540,7 +4540,7 @@
         <v>44369</v>
       </c>
       <c r="B490">
-        <v>0.43243243243243201</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>44370</v>
       </c>
       <c r="B491">
-        <v>0.42993630573248398</v>
+        <v>0.43533123028391102</v>
       </c>
       <c r="G491" s="2"/>
       <c r="I491" s="2"/>
@@ -4558,7 +4558,7 @@
         <v>44371</v>
       </c>
       <c r="B492">
-        <v>0.42718446601941701</v>
+        <v>0.43269230769230699</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
         <v>44372</v>
       </c>
       <c r="B493">
-        <v>0.43</v>
+        <v>0.43564356435643498</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>44373</v>
       </c>
       <c r="B494">
-        <v>0.42068965517241302</v>
+        <v>0.426621160409556</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>44374</v>
       </c>
       <c r="B495">
-        <v>0.42753623188405798</v>
+        <v>0.43369175627240097</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>44375</v>
       </c>
       <c r="B496">
-        <v>0.42279411764705799</v>
+        <v>0.43115942028985499</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
         <v>44376</v>
       </c>
       <c r="B497">
-        <v>0.41417910447761103</v>
+        <v>0.42804428044280401</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>44377</v>
       </c>
       <c r="B498">
-        <v>0.42424242424242398</v>
+        <v>0.43820224719101097</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>44378</v>
       </c>
       <c r="B499">
-        <v>0.441509433962264</v>
+        <v>0.45522388059701402</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>44379</v>
       </c>
       <c r="B500">
-        <v>0.439393939393939</v>
+        <v>0.45318352059924999</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
         <v>44380</v>
       </c>
       <c r="B501">
-        <v>0.42338709677419301</v>
+        <v>0.43824701195219101</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
         <v>44381</v>
       </c>
       <c r="B502">
-        <v>0.417004048582995</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4646,7 @@
         <v>44382</v>
       </c>
       <c r="B503">
-        <v>0.41269841269841201</v>
+        <v>0.429133858267716</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4654,7 @@
         <v>44383</v>
       </c>
       <c r="B504">
-        <v>0.40458015267175501</v>
+        <v>0.42803030303030298</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>44384</v>
       </c>
       <c r="B505">
-        <v>0.40808823529411697</v>
+        <v>0.42700729927007203</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>44385</v>
       </c>
       <c r="B506">
-        <v>0.41818181818181799</v>
+        <v>0.43682310469314001</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
         <v>44386</v>
       </c>
       <c r="B507">
-        <v>0.416370106761565</v>
+        <v>0.43859649122806998</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -4686,7 +4686,7 @@
         <v>44387</v>
       </c>
       <c r="B508">
-        <v>0.41428571428571398</v>
+        <v>0.43661971830985902</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>44388</v>
       </c>
       <c r="B509">
-        <v>0.40955631399317399</v>
+        <v>0.43097643097643001</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4702,7 @@
         <v>44389</v>
       </c>
       <c r="B510">
-        <v>0.42666666666666597</v>
+        <v>0.44918032786885198</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>44390</v>
       </c>
       <c r="B511">
-        <v>0.42948717948717902</v>
+        <v>0.45110410094637199</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>44391</v>
       </c>
       <c r="B512">
-        <v>0.42271293375394298</v>
+        <v>0.44409937888198697</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>44392</v>
       </c>
       <c r="B513">
-        <v>0.41515151515151499</v>
+        <v>0.43582089552238801</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>44393</v>
       </c>
       <c r="B514">
-        <v>0.41399416909620901</v>
+        <v>0.43390804597701099</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>44394</v>
       </c>
       <c r="B515">
-        <v>0.41242937853107298</v>
+        <v>0.43333333333333302</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>44395</v>
       </c>
       <c r="B516">
-        <v>0.40909090909090901</v>
+        <v>0.42782152230971099</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
         <v>44396</v>
       </c>
       <c r="B517">
-        <v>0.4</v>
+        <v>0.41791044776119401</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>44397</v>
       </c>
       <c r="B518">
-        <v>0.39024390243902402</v>
+        <v>0.406698564593301</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>44398</v>
       </c>
       <c r="B519">
-        <v>0.39150943396226401</v>
+        <v>0.407407407407407</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -4782,7 +4782,7 @@
         <v>44399</v>
       </c>
       <c r="B520">
-        <v>0.402272727272727</v>
+        <v>0.41741071428571402</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -4790,7 +4790,7 @@
         <v>44400</v>
       </c>
       <c r="B521">
-        <v>0.40043763676148703</v>
+        <v>0.42025862068965503</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>44401</v>
       </c>
       <c r="B522">
-        <v>0.39622641509433898</v>
+        <v>0.41443298969072101</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>44402</v>
       </c>
       <c r="B523">
-        <v>0.39882121807465598</v>
+        <v>0.41505791505791501</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>44403</v>
       </c>
       <c r="B524">
-        <v>0.39697542533081198</v>
+        <v>0.41263940520446002</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>44404</v>
       </c>
       <c r="B525">
-        <v>0.39964157706093101</v>
+        <v>0.41725352112676001</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
         <v>44405</v>
       </c>
       <c r="B526">
-        <v>0.39931153184165202</v>
+        <v>0.41793570219966097</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>44406</v>
       </c>
       <c r="B527">
-        <v>0.39469320066334901</v>
+        <v>0.41272430668841698</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -4846,167 +4846,167 @@
         <v>44407</v>
       </c>
       <c r="B528">
-        <v>0.39212598425196799</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40958268933539399</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44408</v>
       </c>
       <c r="B529">
-        <v>0.39097744360902198</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40795287187039703</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44409</v>
       </c>
       <c r="B530">
-        <v>0.39601139601139601</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41225626740947002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44410</v>
       </c>
       <c r="B531">
-        <v>0.39669421487603301</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.413189771197846</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44411</v>
       </c>
       <c r="B532">
-        <v>0.40026773761713502</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41329856584093799</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44412</v>
       </c>
       <c r="B533">
-        <v>0.39948119325551201</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41161616161616099</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44413</v>
       </c>
       <c r="B534">
-        <v>0.394703656998738</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40736196319018397</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44414</v>
       </c>
       <c r="B535">
-        <v>0.39756097560975601</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.410926365795724</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44415</v>
       </c>
       <c r="B536">
-        <v>0.40094899169632198</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41753171856978</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44416</v>
       </c>
       <c r="B537">
-        <v>0.41196777905638599</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.42729306487695701</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44417</v>
       </c>
       <c r="B538">
-        <v>0.40924464487034901</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.42872807017543801</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44418</v>
       </c>
       <c r="B539">
-        <v>0.40773480662983402</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.43010752688171999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44419</v>
       </c>
       <c r="B540">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.43350785340314102</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44420</v>
       </c>
       <c r="B541">
-        <v>0.39979123173277598</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.43161094224924001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44421</v>
       </c>
-      <c r="C542">
-        <v>0.39409368635437803</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>0.42786561264822098</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44422</v>
       </c>
-      <c r="C543">
-        <v>0.38949454905847303</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44423</v>
       </c>
-      <c r="C544">
-        <v>0.38326848249027201</v>
+      <c r="B544">
+        <v>0.42090395480225901</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44424</v>
       </c>
-      <c r="C545">
-        <v>0.37547892720306503</v>
+      <c r="B545">
+        <v>0.41597028783658302</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44425</v>
       </c>
-      <c r="C546">
-        <v>0.36603773584905602</v>
+      <c r="B546">
+        <v>0.41219290263876202</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44426</v>
       </c>
-      <c r="C547">
-        <v>0.36118848653667501</v>
+      <c r="B547">
+        <v>0.410554561717352</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44427</v>
       </c>
-      <c r="C548">
-        <v>0.35847299813780198</v>
+      <c r="B548">
+        <v>0.41234347048300501</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>44428</v>
       </c>
       <c r="C549">
-        <v>0.34930875576036802</v>
+        <v>0.406884377758164</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -5022,7 +5022,7 @@
         <v>44429</v>
       </c>
       <c r="C550">
-        <v>0.34153005464480801</v>
+        <v>0.40173913043478199</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>44430</v>
       </c>
       <c r="C551">
-        <v>0.33484162895927599</v>
+        <v>0.39671564390665498</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
         <v>44431</v>
       </c>
       <c r="C552">
-        <v>0.33423913043478198</v>
+        <v>0.40171673819742398</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,55 +5046,55 @@
         <v>44432</v>
       </c>
       <c r="C553">
-        <v>0.33060853769300602</v>
+        <v>0.39982876712328702</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44433</v>
       </c>
-      <c r="C554" t="s">
-        <v>1</v>
+      <c r="C554">
+        <v>0.39475908706677898</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44434</v>
       </c>
-      <c r="C555" t="s">
-        <v>1</v>
+      <c r="C555">
+        <v>0.38758389261744902</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44435</v>
       </c>
-      <c r="C556" t="s">
-        <v>1</v>
+      <c r="C556">
+        <v>0.37772194304857598</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44436</v>
       </c>
-      <c r="C557" t="s">
-        <v>1</v>
+      <c r="C557">
+        <v>0.37478849407783399</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44437</v>
       </c>
-      <c r="C558" t="s">
-        <v>1</v>
+      <c r="C558">
+        <v>0.36604095563139899</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44438</v>
       </c>
-      <c r="C559" t="s">
-        <v>1</v>
+      <c r="C559">
+        <v>0.36020583190394501</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -5158,6 +5158,70 @@
         <v>44446</v>
       </c>
       <c r="C567" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44448</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44449</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44452</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C575" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5169,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8CDBC-17FE-9F43-8A59-B41C0A47450B}">
-  <dimension ref="A1:U569"/>
+  <dimension ref="A1:U575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="T542" sqref="T542"/>
+    <sheetView tabSelected="1" topLeftCell="G536" workbookViewId="0">
+      <selection activeCell="V549" sqref="V549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13866,7 +13930,7 @@
         <v>0.107692307692307</v>
       </c>
       <c r="H248">
-        <v>0.109289617486338</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="J248">
         <v>0.14226804123711301</v>
@@ -13901,7 +13965,7 @@
         <v>0.104477611940298</v>
       </c>
       <c r="H249">
-        <v>0.108108108108108</v>
+        <v>0.10752688172043</v>
       </c>
       <c r="J249">
         <v>0.14399999999999999</v>
@@ -13936,7 +14000,7 @@
         <v>0.104477611940298</v>
       </c>
       <c r="H250">
-        <v>0.10695187165775399</v>
+        <v>0.10638297872340401</v>
       </c>
       <c r="J250">
         <v>0.15459882583170201</v>
@@ -13971,7 +14035,7 @@
         <v>0.10294117647058799</v>
       </c>
       <c r="H251">
-        <v>0.117948717948717</v>
+        <v>0.11734693877551</v>
       </c>
       <c r="J251">
         <v>0.15576923076922999</v>
@@ -14006,7 +14070,7 @@
         <v>0.13235294117647001</v>
       </c>
       <c r="H252">
-        <v>0.115577889447236</v>
+        <v>0.115</v>
       </c>
       <c r="J252">
         <v>0.15887850467289699</v>
@@ -14041,7 +14105,7 @@
         <v>0.13043478260869501</v>
       </c>
       <c r="H253">
-        <v>0.115577889447236</v>
+        <v>0.115</v>
       </c>
       <c r="J253">
         <v>0.16029143897996301</v>
@@ -14076,7 +14140,7 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H254">
-        <v>0.112195121951219</v>
+        <v>0.111650485436893</v>
       </c>
       <c r="J254">
         <v>0.16221033868092599</v>
@@ -14111,7 +14175,7 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H255">
-        <v>0.110576923076923</v>
+        <v>0.11004784688995201</v>
       </c>
       <c r="J255">
         <v>0.16404886561954601</v>
@@ -14146,7 +14210,7 @@
         <v>0.154929577464788</v>
       </c>
       <c r="H256">
-        <v>0.105263157894736</v>
+        <v>0.104761904761904</v>
       </c>
       <c r="J256">
         <v>0.16923076923076899</v>
@@ -14181,7 +14245,7 @@
         <v>0.157142857142857</v>
       </c>
       <c r="H257">
-        <v>0.109523809523809</v>
+        <v>0.109004739336492</v>
       </c>
       <c r="J257">
         <v>0.166107382550335</v>
@@ -14216,7 +14280,7 @@
         <v>0.154929577464788</v>
       </c>
       <c r="H258">
-        <v>0.10849056603773501</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="J258">
         <v>0.163606010016694</v>
@@ -14251,7 +14315,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="H259">
-        <v>0.116279069767441</v>
+        <v>0.11574074074074001</v>
       </c>
       <c r="J259">
         <v>0.162337662337662</v>
@@ -14286,7 +14350,7 @@
         <v>0.164383561643835</v>
       </c>
       <c r="H260">
-        <v>0.115207373271889</v>
+        <v>0.11467889908256799</v>
       </c>
       <c r="J260">
         <v>0.162640901771336</v>
@@ -14321,7 +14385,7 @@
         <v>0.17333333333333301</v>
       </c>
       <c r="H261">
-        <v>0.119266055045871</v>
+        <v>0.11872146118721399</v>
       </c>
       <c r="J261">
         <v>0.16666666666666599</v>
@@ -14356,7 +14420,7 @@
         <v>0.17105263157894701</v>
       </c>
       <c r="H262">
-        <v>0.122171945701357</v>
+        <v>0.121621621621621</v>
       </c>
       <c r="J262">
         <v>0.16587677725118399</v>
@@ -14391,7 +14455,7 @@
         <v>0.17105263157894701</v>
       </c>
       <c r="H263">
-        <v>0.121621621621621</v>
+        <v>0.12107623318385601</v>
       </c>
       <c r="J263">
         <v>0.164835164835164</v>
@@ -14426,7 +14490,7 @@
         <v>0.168831168831168</v>
       </c>
       <c r="H264">
-        <v>0.120535714285714</v>
+        <v>0.12</v>
       </c>
       <c r="J264">
         <v>0.16536661466458599</v>
@@ -14461,7 +14525,7 @@
         <v>0.17105263157894701</v>
       </c>
       <c r="H265">
-        <v>0.118421052631578</v>
+        <v>0.117903930131004</v>
       </c>
       <c r="J265">
         <v>0.16485225505443199</v>
@@ -14496,7 +14560,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="H266">
-        <v>0.11739130434782601</v>
+        <v>0.11688311688311601</v>
       </c>
       <c r="J266">
         <v>0.16563467492260001</v>
@@ -14531,7 +14595,7 @@
         <v>0.177215189873417</v>
       </c>
       <c r="H267">
-        <v>0.11688311688311601</v>
+        <v>0.116379310344827</v>
       </c>
       <c r="J267">
         <v>0.16848673946957801</v>
@@ -14566,7 +14630,7 @@
         <v>0.17105263157894701</v>
       </c>
       <c r="H268">
-        <v>0.116379310344827</v>
+        <v>0.11587982832618</v>
       </c>
       <c r="J268">
         <v>0.16588419405320801</v>
@@ -14601,7 +14665,7 @@
         <v>0.17948717948717899</v>
       </c>
       <c r="H269">
-        <v>0.11688311688311601</v>
+        <v>0.116379310344827</v>
       </c>
       <c r="J269">
         <v>0.16797488226059601</v>
@@ -14636,7 +14700,7 @@
         <v>0.17948717948717899</v>
       </c>
       <c r="H270">
-        <v>0.120171673819742</v>
+        <v>0.119658119658119</v>
       </c>
       <c r="J270">
         <v>0.172143974960876</v>
@@ -14671,7 +14735,7 @@
         <v>0.17948717948717899</v>
       </c>
       <c r="H271">
-        <v>0.121739130434782</v>
+        <v>0.12121212121212099</v>
       </c>
       <c r="J271">
         <v>0.17582417582417501</v>
@@ -14706,7 +14770,7 @@
         <v>0.18181818181818099</v>
       </c>
       <c r="H272">
-        <v>0.11894273127753301</v>
+        <v>0.118421052631578</v>
       </c>
       <c r="J272">
         <v>0.17619047619047601</v>
@@ -14741,7 +14805,7 @@
         <v>0.18421052631578899</v>
       </c>
       <c r="H273">
-        <v>0.126126126126126</v>
+        <v>0.12556053811659099</v>
       </c>
       <c r="J273">
         <v>0.17637540453074399</v>
@@ -14776,7 +14840,7 @@
         <v>0.18918918918918901</v>
       </c>
       <c r="H274">
-        <v>0.119815668202764</v>
+        <v>0.119266055045871</v>
       </c>
       <c r="J274">
         <v>0.17781402936378399</v>
@@ -14811,7 +14875,7 @@
         <v>0.18918918918918901</v>
       </c>
       <c r="H275">
-        <v>0.123287671232876</v>
+        <v>0.122727272727272</v>
       </c>
       <c r="J275">
         <v>0.17940199335548099</v>
@@ -14846,7 +14910,7 @@
         <v>0.194444444444444</v>
       </c>
       <c r="H276">
-        <v>0.11574074074074001</v>
+        <v>0.115207373271889</v>
       </c>
       <c r="J276">
         <v>0.185497470489038</v>
@@ -14881,7 +14945,7 @@
         <v>0.194444444444444</v>
       </c>
       <c r="H277">
-        <v>0.12093023255813901</v>
+        <v>0.12037037037037</v>
       </c>
       <c r="J277">
         <v>0.18620689655172401</v>
@@ -14916,7 +14980,7 @@
         <v>0.18666666666666601</v>
       </c>
       <c r="H278">
-        <v>0.113207547169811</v>
+        <v>0.11267605633802801</v>
       </c>
       <c r="J278">
         <v>0.185964912280701</v>
@@ -14951,7 +15015,7 @@
         <v>0.17105263157894701</v>
       </c>
       <c r="H279">
-        <v>0.115384615384615</v>
+        <v>0.11483253588516699</v>
       </c>
       <c r="J279">
         <v>0.19056261343012701</v>
@@ -14986,7 +15050,7 @@
         <v>0.17567567567567499</v>
       </c>
       <c r="H280">
-        <v>0.11764705882352899</v>
+        <v>0.117073170731707</v>
       </c>
       <c r="J280">
         <v>0.19047619047618999</v>
@@ -15021,7 +15085,7 @@
         <v>0.17567567567567499</v>
       </c>
       <c r="H281">
-        <v>0.11616161616161599</v>
+        <v>0.115577889447236</v>
       </c>
       <c r="J281">
         <v>0.19101123595505601</v>
@@ -15056,7 +15120,7 @@
         <v>0.185714285714285</v>
       </c>
       <c r="H282">
-        <v>0.11340206185567001</v>
+        <v>0.112820512820512</v>
       </c>
       <c r="J282">
         <v>0.188571428571428</v>
@@ -15091,7 +15155,7 @@
         <v>0.188405797101449</v>
       </c>
       <c r="H283">
-        <v>0.11640211640211599</v>
+        <v>0.11578947368421</v>
       </c>
       <c r="J283">
         <v>0.18640776699029099</v>
@@ -15126,7 +15190,7 @@
         <v>0.191176470588235</v>
       </c>
       <c r="H284">
-        <v>0.11578947368421</v>
+        <v>0.115183246073298</v>
       </c>
       <c r="J284">
         <v>0.18562874251497</v>
@@ -15161,7 +15225,7 @@
         <v>0.18461538461538399</v>
       </c>
       <c r="H285">
-        <v>0.124324324324324</v>
+        <v>0.123655913978494</v>
       </c>
       <c r="J285">
         <v>0.18442622950819601</v>
@@ -15196,7 +15260,7 @@
         <v>0.16923076923076899</v>
       </c>
       <c r="H286">
-        <v>0.13259668508287201</v>
+        <v>0.13186813186813101</v>
       </c>
       <c r="J286">
         <v>0.182389937106918</v>
@@ -15231,7 +15295,7 @@
         <v>0.16923076923076899</v>
       </c>
       <c r="H287">
-        <v>0.12849162011173099</v>
+        <v>0.12777777777777699</v>
       </c>
       <c r="J287">
         <v>0.18614718614718601</v>
@@ -15266,7 +15330,7 @@
         <v>0.19047619047618999</v>
       </c>
       <c r="H288">
-        <v>0.119318181818181</v>
+        <v>0.11864406779661001</v>
       </c>
       <c r="J288">
         <v>0.18568232662192299</v>
@@ -15301,7 +15365,7 @@
         <v>0.186440677966101</v>
       </c>
       <c r="H289">
-        <v>0.11864406779661001</v>
+        <v>0.117977528089887</v>
       </c>
       <c r="J289">
         <v>0.18937644341801299</v>
@@ -18005,7 +18069,7 @@
         <v>0.216354344122657</v>
       </c>
       <c r="N366">
-        <v>0.38620342396777402</v>
+        <v>0.38600905888273701</v>
       </c>
       <c r="P366">
         <v>0.50835711373827897</v>
@@ -18040,7 +18104,7 @@
         <v>0.211666666666666</v>
       </c>
       <c r="N367">
-        <v>0.388997078870496</v>
+        <v>0.38880778588807702</v>
       </c>
       <c r="P367">
         <v>0.50317712470214404</v>
@@ -18075,7 +18139,7 @@
         <v>0.208870967741935</v>
       </c>
       <c r="N368">
-        <v>0.39196940726577401</v>
+        <v>0.39178213091256497</v>
       </c>
       <c r="P368">
         <v>0.50391849529780497</v>
@@ -18110,7 +18174,7 @@
         <v>0.20747217806041299</v>
       </c>
       <c r="N369">
-        <v>0.39114219114219101</v>
+        <v>0.39095992544268399</v>
       </c>
       <c r="P369">
         <v>0.50600542425416495</v>
@@ -18145,7 +18209,7 @@
         <v>0.204992435703479</v>
       </c>
       <c r="N370">
-        <v>0.39048925468678503</v>
+        <v>0.39031078610603198</v>
       </c>
       <c r="P370">
         <v>0.507058374666158</v>
@@ -18180,7 +18244,7 @@
         <v>0.20291970802919701</v>
       </c>
       <c r="N371">
-        <v>0.39323843416370102</v>
+        <v>0.39306358381502798</v>
       </c>
       <c r="P371">
         <v>0.50898203592814295</v>
@@ -18215,7 +18279,7 @@
         <v>0.20702005730659001</v>
       </c>
       <c r="N372">
-        <v>0.39134236991692101</v>
+        <v>0.39117132867132798</v>
       </c>
       <c r="P372">
         <v>0.50638919313618103</v>
@@ -18250,7 +18314,7 @@
         <v>0.20728291316526601</v>
       </c>
       <c r="N373">
-        <v>0.39093242087253999</v>
+        <v>0.390765284309534</v>
       </c>
       <c r="P373">
         <v>0.50287562904385297</v>
@@ -18285,7 +18349,7 @@
         <v>0.203252032520325</v>
       </c>
       <c r="N374">
-        <v>0.39249578414839797</v>
+        <v>0.392330383480825</v>
       </c>
       <c r="P374">
         <v>0.50264177527298304</v>
@@ -18320,7 +18384,7 @@
         <v>0.2018779342723</v>
       </c>
       <c r="N375">
-        <v>0.38854552946023801</v>
+        <v>0.38838550247116899</v>
       </c>
       <c r="P375">
         <v>0.50295036445678498</v>
@@ -18355,7 +18419,7 @@
         <v>0.20078999341672099</v>
       </c>
       <c r="N376">
-        <v>0.38467774625050599</v>
+        <v>0.38452188006482901</v>
       </c>
       <c r="P376">
         <v>0.50068073519400902</v>
@@ -18390,7 +18454,7 @@
         <v>0.19935275080906101</v>
       </c>
       <c r="N377">
-        <v>0.38687872763419401</v>
+        <v>0.38672496025437197</v>
       </c>
       <c r="P377">
         <v>0.49815745393634803</v>
@@ -18425,7 +18489,7 @@
         <v>0.201793721973094</v>
       </c>
       <c r="N378">
-        <v>0.38663017982798997</v>
+        <v>0.38647909339585701</v>
       </c>
       <c r="P378">
         <v>0.49934036939313903</v>
@@ -18460,7 +18524,7 @@
         <v>0.19874608150470199</v>
       </c>
       <c r="N379">
-        <v>0.38535645472061603</v>
+        <v>0.38520801232665602</v>
       </c>
       <c r="P379">
         <v>0.49788480312398298</v>
@@ -18495,7 +18559,7 @@
         <v>0.202088452088452</v>
       </c>
       <c r="N380">
-        <v>0.38461538461538403</v>
+        <v>0.38447111777944398</v>
       </c>
       <c r="P380">
         <v>0.496642149024624</v>
@@ -18530,7 +18594,7 @@
         <v>0.2</v>
       </c>
       <c r="N381">
-        <v>0.38278388278388198</v>
+        <v>0.38264372024899301</v>
       </c>
       <c r="P381">
         <v>0.49277638190954698</v>
@@ -18565,7 +18629,7 @@
         <v>0.20105509964830001</v>
       </c>
       <c r="N382">
-        <v>0.38425593098490202</v>
+        <v>0.38411785842615798</v>
       </c>
       <c r="P382">
         <v>0.49256505576208098</v>
@@ -18600,7 +18664,7 @@
         <v>0.19919168591224001</v>
       </c>
       <c r="N383">
-        <v>0.38469675599435799</v>
+        <v>0.384561156150863</v>
       </c>
       <c r="P383">
         <v>0.49372513008876601</v>
@@ -18635,7 +18699,7 @@
         <v>0.19875070982396301</v>
       </c>
       <c r="N384">
-        <v>0.38230210853784902</v>
+        <v>0.38217000691085001</v>
       </c>
       <c r="P384">
         <v>0.49380851706433099</v>
@@ -18670,7 +18734,7 @@
         <v>0.199223085460599</v>
       </c>
       <c r="N385">
-        <v>0.38079019073569398</v>
+        <v>0.38066053796390797</v>
       </c>
       <c r="P385">
         <v>0.49213883120735602</v>
@@ -18705,7 +18769,7 @@
         <v>0.201970443349753</v>
       </c>
       <c r="N386">
-        <v>0.37913571910871002</v>
+        <v>0.37900776240296902</v>
       </c>
       <c r="P386">
         <v>0.49165935030728702</v>
@@ -18740,7 +18804,7 @@
         <v>0.20065252854812399</v>
       </c>
       <c r="N387">
-        <v>0.38195841716968398</v>
+        <v>0.38183037210861498</v>
       </c>
       <c r="P387">
         <v>0.49461112729391199</v>
@@ -18775,7 +18839,7 @@
         <v>0.19935344827586199</v>
       </c>
       <c r="N388">
-        <v>0.37859266600594599</v>
+        <v>0.37846763540290601</v>
       </c>
       <c r="P388">
         <v>0.491981672394043</v>
@@ -18810,7 +18874,7 @@
         <v>0.20053763440860201</v>
       </c>
       <c r="N389">
-        <v>0.37754432042022301</v>
+        <v>0.377296587926509</v>
       </c>
       <c r="P389">
         <v>0.49203187250996</v>
@@ -18845,7 +18909,7 @@
         <v>0.20268096514745301</v>
       </c>
       <c r="N390">
-        <v>0.379512195121951</v>
+        <v>0.37926551836204098</v>
       </c>
       <c r="P390">
         <v>0.492216246815737</v>
@@ -18880,7 +18944,7 @@
         <v>0.201400107700592</v>
       </c>
       <c r="N391">
-        <v>0.38059701492537301</v>
+        <v>0.380350194552529</v>
       </c>
       <c r="P391">
         <v>0.49489506522972199</v>
@@ -18909,13 +18973,13 @@
         <v>3.9682539682539597E-2</v>
       </c>
       <c r="J392">
-        <v>0.118438761776581</v>
+        <v>0.11859838274932601</v>
       </c>
       <c r="L392">
         <v>0.204364023416711</v>
       </c>
       <c r="N392">
-        <v>0.37972231191475603</v>
+        <v>0.37947725072603999</v>
       </c>
       <c r="P392">
         <v>0.49431818181818099</v>
@@ -18944,13 +19008,13 @@
         <v>4.0322580645161199E-2</v>
       </c>
       <c r="J393">
-        <v>0.11859838274932601</v>
+        <v>0.11875843454790801</v>
       </c>
       <c r="L393">
         <v>0.205182443151771</v>
       </c>
       <c r="N393">
-        <v>0.37881219903691798</v>
+        <v>0.378569136990696</v>
       </c>
       <c r="P393">
         <v>0.49420740322124801</v>
@@ -18979,13 +19043,13 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="J394">
-        <v>0.121621621621621</v>
+        <v>0.121786197564276</v>
       </c>
       <c r="L394">
         <v>0.20474934036939299</v>
       </c>
       <c r="N394">
-        <v>0.37785645317026001</v>
+        <v>0.37761338050820198</v>
       </c>
       <c r="P394">
         <v>0.49219858156028301</v>
@@ -19014,13 +19078,13 @@
         <v>4.36507936507936E-2</v>
       </c>
       <c r="J395">
-        <v>0.12297297297297199</v>
+        <v>0.12313937753721201</v>
       </c>
       <c r="L395">
         <v>0.205196182396606</v>
       </c>
       <c r="N395">
-        <v>0.37797045600513801</v>
+        <v>0.37772785622593003</v>
       </c>
       <c r="P395">
         <v>0.49234259784458301</v>
@@ -19049,13 +19113,13 @@
         <v>4.7430830039525598E-2</v>
       </c>
       <c r="J396">
-        <v>0.130904183535762</v>
+        <v>0.13108108108108099</v>
       </c>
       <c r="L396">
         <v>0.20744680851063799</v>
       </c>
       <c r="N396">
-        <v>0.37949871465295598</v>
+        <v>0.379254977520873</v>
       </c>
       <c r="P396">
         <v>0.49448685326547898</v>
@@ -19084,13 +19148,13 @@
         <v>4.7430830039525598E-2</v>
       </c>
       <c r="J397">
-        <v>0.13315217391304299</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="L397">
         <v>0.20895522388059701</v>
       </c>
       <c r="N397">
-        <v>0.38265635074145699</v>
+        <v>0.38240979381443202</v>
       </c>
       <c r="P397">
         <v>0.49701958558047099</v>
@@ -19119,16 +19183,16 @@
         <v>4.7058823529411702E-2</v>
       </c>
       <c r="J398">
-        <v>0.135245901639344</v>
+        <v>0.13543091655266701</v>
       </c>
       <c r="L398">
         <v>0.21055465805061899</v>
       </c>
       <c r="N398">
-        <v>0.38526179702650198</v>
+        <v>0.38501291989663999</v>
       </c>
       <c r="P398">
-        <v>0.49814762040467297</v>
+        <v>0.49843260188087701</v>
       </c>
       <c r="R398">
         <v>0.45990922844175403</v>
@@ -19154,16 +19218,16 @@
         <v>4.36507936507936E-2</v>
       </c>
       <c r="J399">
-        <v>0.13692946058091199</v>
+        <v>0.137119113573407</v>
       </c>
       <c r="L399">
         <v>0.21163166397415101</v>
       </c>
       <c r="N399">
-        <v>0.38977531748616001</v>
+        <v>0.38952164009111601</v>
       </c>
       <c r="P399">
-        <v>0.5</v>
+        <v>0.50028735632183896</v>
       </c>
       <c r="R399">
         <v>0.46604938271604901</v>
@@ -19189,16 +19253,16 @@
         <v>4.0160642570281103E-2</v>
       </c>
       <c r="J400">
-        <v>0.137834036568213</v>
+        <v>0.13802816901408399</v>
       </c>
       <c r="L400">
         <v>0.214480130647795</v>
       </c>
       <c r="N400">
-        <v>0.393800978792822</v>
+        <v>0.39367253750815301</v>
       </c>
       <c r="P400">
-        <v>0.50173913043478202</v>
+        <v>0.50202898550724595</v>
       </c>
       <c r="R400">
         <v>0.46358653093187102</v>
@@ -19224,16 +19288,16 @@
         <v>3.6437246963562701E-2</v>
       </c>
       <c r="J401">
-        <v>0.131805157593123</v>
+        <v>0.131994261119081</v>
       </c>
       <c r="L401">
         <v>0.213973799126637</v>
       </c>
       <c r="N401">
-        <v>0.39466754443712898</v>
+        <v>0.39453767686739</v>
       </c>
       <c r="P401">
-        <v>0.50205399061032796</v>
+        <v>0.50234741784037495</v>
       </c>
       <c r="R401">
         <v>0.466034755134281</v>
@@ -19259,16 +19323,16 @@
         <v>3.6885245901639302E-2</v>
       </c>
       <c r="J402">
-        <v>0.134699853587115</v>
+        <v>0.134897360703812</v>
       </c>
       <c r="L402">
         <v>0.21925431274346099</v>
       </c>
       <c r="N402">
-        <v>0.397806580259222</v>
+        <v>0.39767441860465103</v>
       </c>
       <c r="P402">
-        <v>0.50251851851851803</v>
+        <v>0.50281481481481405</v>
       </c>
       <c r="R402">
         <v>0.467206477732793</v>
@@ -19294,16 +19358,16 @@
         <v>3.7974683544303799E-2</v>
       </c>
       <c r="J403">
-        <v>0.13541666666666599</v>
+        <v>0.13582089552238799</v>
       </c>
       <c r="L403">
         <v>0.22309859154929501</v>
       </c>
       <c r="N403">
-        <v>0.39966273187183798</v>
+        <v>0.39952798381658799</v>
       </c>
       <c r="P403">
-        <v>0.504345220257716</v>
+        <v>0.50464489062031703</v>
       </c>
       <c r="R403">
         <v>0.46776859504132201</v>
@@ -19329,16 +19393,16 @@
         <v>4.2735042735042701E-2</v>
       </c>
       <c r="J404">
-        <v>0.13704819277108399</v>
+        <v>0.13746223564954599</v>
       </c>
       <c r="L404">
         <v>0.22474460839954499</v>
       </c>
       <c r="N404">
-        <v>0.40088706925963802</v>
+        <v>0.40075034106412</v>
       </c>
       <c r="P404">
-        <v>0.508464328899637</v>
+        <v>0.50876662636033798</v>
       </c>
       <c r="R404">
         <v>0.46491969568892599</v>
@@ -19364,16 +19428,16 @@
         <v>5.7522123893805302E-2</v>
       </c>
       <c r="J405">
-        <v>0.13517665130568299</v>
+        <v>0.13559322033898299</v>
       </c>
       <c r="L405">
         <v>0.22511574074074001</v>
       </c>
       <c r="N405">
-        <v>0.40470425458318898</v>
+        <v>0.40456431535269699</v>
       </c>
       <c r="P405">
-        <v>0.51306990881458903</v>
+        <v>0.51337386018236997</v>
       </c>
       <c r="R405">
         <v>0.46643717728055001</v>
@@ -19399,16 +19463,16 @@
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="J406">
-        <v>0.135093167701863</v>
+        <v>0.135514018691588</v>
       </c>
       <c r="L406">
         <v>0.23162845385067601</v>
       </c>
       <c r="N406">
-        <v>0.40686274509803899</v>
+        <v>0.40672033601680002</v>
       </c>
       <c r="P406">
-        <v>0.51711378353376503</v>
+        <v>0.51742213999383202</v>
       </c>
       <c r="R406">
         <v>0.47017543859649102</v>
@@ -19434,16 +19498,16 @@
         <v>6.0185185185185099E-2</v>
       </c>
       <c r="J407">
-        <v>0.13479623824451401</v>
+        <v>0.13522012578616299</v>
       </c>
       <c r="L407">
         <v>0.233432835820895</v>
       </c>
       <c r="N407">
-        <v>0.40769779044903698</v>
+        <v>0.40755254720341999</v>
       </c>
       <c r="P407">
-        <v>0.52089224002513301</v>
+        <v>0.52120640904806703</v>
       </c>
       <c r="R407">
         <v>0.469090909090909</v>
@@ -19469,7 +19533,7 @@
         <v>6.5116279069767399E-2</v>
       </c>
       <c r="J408">
-        <v>0.13418530351437699</v>
+        <v>0.134615384615384</v>
       </c>
       <c r="L408">
         <v>0.231559854897218</v>
@@ -19478,7 +19542,7 @@
         <v>0.40820029027576199</v>
       </c>
       <c r="P408">
-        <v>0.525730622617534</v>
+        <v>0.52588123213718596</v>
       </c>
       <c r="R408">
         <v>0.47693726937269298</v>
@@ -19504,7 +19568,7 @@
         <v>6.3725490196078399E-2</v>
       </c>
       <c r="J409">
-        <v>0.13754045307443299</v>
+        <v>0.13798701298701299</v>
       </c>
       <c r="L409">
         <v>0.23482526057633299</v>
@@ -19513,7 +19577,7 @@
         <v>0.41023738872403498</v>
       </c>
       <c r="P409">
-        <v>0.53101656381942097</v>
+        <v>0.53116883116883096</v>
       </c>
       <c r="R409">
         <v>0.47801147227533403</v>
@@ -19536,10 +19600,10 @@
         <v>0.10638297872340401</v>
       </c>
       <c r="H410">
-        <v>5.85365853658536E-2</v>
+        <v>5.8252427184466E-2</v>
       </c>
       <c r="J410">
-        <v>0.136212624584717</v>
+        <v>0.13666666666666599</v>
       </c>
       <c r="L410">
         <v>0.23735165521549001</v>
@@ -19548,7 +19612,7 @@
         <v>0.41214177978883798</v>
       </c>
       <c r="P410">
-        <v>0.53390388413429801</v>
+        <v>0.53405725567620899</v>
       </c>
       <c r="R410">
         <v>0.48238747553816003</v>
@@ -19571,10 +19635,10 @@
         <v>0.10638297872340401</v>
       </c>
       <c r="H411">
-        <v>5.85365853658536E-2</v>
+        <v>5.8252427184466E-2</v>
       </c>
       <c r="J411">
-        <v>0.133445945945945</v>
+        <v>0.13389830508474501</v>
       </c>
       <c r="L411">
         <v>0.239898989898989</v>
@@ -19583,7 +19647,7 @@
         <v>0.41208156983455102</v>
       </c>
       <c r="P411">
-        <v>0.53517839279759905</v>
+        <v>0.53566666666666596</v>
       </c>
       <c r="R411">
         <v>0.48568507157464202</v>
@@ -19606,10 +19670,10 @@
         <v>0.10416666666666601</v>
       </c>
       <c r="H412">
-        <v>5.9405940594059403E-2</v>
+        <v>5.91133004926108E-2</v>
       </c>
       <c r="J412">
-        <v>0.13816925734024099</v>
+        <v>0.13864818024263401</v>
       </c>
       <c r="L412">
         <v>0.24460431654676201</v>
@@ -19618,7 +19682,7 @@
         <v>0.41630901287553601</v>
       </c>
       <c r="P412">
-        <v>0.53752122241086497</v>
+        <v>0.53835709436524104</v>
       </c>
       <c r="R412">
         <v>0.49154334038054898</v>
@@ -19641,10 +19705,10 @@
         <v>0.108695652173913</v>
       </c>
       <c r="H413">
-        <v>6.0913705583756299E-2</v>
+        <v>6.0606060606060601E-2</v>
       </c>
       <c r="J413">
-        <v>0.14260249554367199</v>
+        <v>0.14311270125223599</v>
       </c>
       <c r="L413">
         <v>0.24932614555256</v>
@@ -19653,7 +19717,7 @@
         <v>0.41577487118509698</v>
       </c>
       <c r="P413">
-        <v>0.53789986091794095</v>
+        <v>0.53875564824469901</v>
       </c>
       <c r="R413">
         <v>0.49223946784922301</v>
@@ -19676,10 +19740,10 @@
         <v>0.116279069767441</v>
       </c>
       <c r="H414">
-        <v>6.15384615384615E-2</v>
+        <v>6.1224489795918297E-2</v>
       </c>
       <c r="J414">
-        <v>0.14338235294117599</v>
+        <v>0.143911439114391</v>
       </c>
       <c r="L414">
         <v>0.24948453608247401</v>
@@ -19688,7 +19752,7 @@
         <v>0.41966426858513101</v>
       </c>
       <c r="P414">
-        <v>0.54175588865096302</v>
+        <v>0.542632893328576</v>
       </c>
       <c r="R414">
         <v>0.495972382048331</v>
@@ -19711,19 +19775,19 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H415">
-        <v>6.3829787234042507E-2</v>
+        <v>6.3492063492063405E-2</v>
       </c>
       <c r="J415">
-        <v>0.142322097378277</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="L415">
         <v>0.25280898876404401</v>
       </c>
       <c r="N415">
-        <v>0.42122448979591798</v>
+        <v>0.42139648836259602</v>
       </c>
       <c r="P415">
-        <v>0.54446064139941597</v>
+        <v>0.54535519125682996</v>
       </c>
       <c r="R415">
         <v>0.50893921334922498</v>
@@ -19746,19 +19810,19 @@
         <v>0.11363636363636299</v>
       </c>
       <c r="H416">
-        <v>0.05</v>
+        <v>4.9723756906077297E-2</v>
       </c>
       <c r="J416">
-        <v>0.14258188824662801</v>
+        <v>0.14313346228239801</v>
       </c>
       <c r="L416">
         <v>0.25785244704163601</v>
       </c>
       <c r="N416">
-        <v>0.42478242851222497</v>
+        <v>0.42495854063018201</v>
       </c>
       <c r="P416">
-        <v>0.54962686567164099</v>
+        <v>0.55054084296904104</v>
       </c>
       <c r="R416">
         <v>0.51624999999999999</v>
@@ -19781,19 +19845,19 @@
         <v>0.11363636363636299</v>
       </c>
       <c r="H417">
-        <v>5.3254437869822403E-2</v>
+        <v>5.29411764705882E-2</v>
       </c>
       <c r="J417">
-        <v>0.14629258517033999</v>
+        <v>0.146881287726358</v>
       </c>
       <c r="L417">
         <v>0.25925925925925902</v>
       </c>
       <c r="N417">
-        <v>0.42772108843537399</v>
+        <v>0.42790301999149299</v>
       </c>
       <c r="P417">
-        <v>0.55091185410334298</v>
+        <v>0.55184200531712801</v>
       </c>
       <c r="R417">
         <v>0.51932989690721598</v>
@@ -19816,19 +19880,19 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H418">
-        <v>5.3254437869822403E-2</v>
+        <v>5.29411764705882E-2</v>
       </c>
       <c r="J418">
-        <v>0.14401622718052701</v>
+        <v>0.144602851323828</v>
       </c>
       <c r="L418">
         <v>0.26327769347496199</v>
       </c>
       <c r="N418">
-        <v>0.43136403127715001</v>
+        <v>0.43155149934810899</v>
       </c>
       <c r="P418">
-        <v>0.55477855477855398</v>
+        <v>0.55572815533980502</v>
       </c>
       <c r="R418">
         <v>0.52513227513227501</v>
@@ -19851,10 +19915,10 @@
         <v>0.13636363636363599</v>
       </c>
       <c r="H419">
-        <v>5.4878048780487798E-2</v>
+        <v>5.4545454545454501E-2</v>
       </c>
       <c r="J419">
-        <v>0.14374999999999999</v>
+        <v>0.14435146443514599</v>
       </c>
       <c r="L419">
         <v>0.26896012509773198</v>
@@ -19863,7 +19927,7 @@
         <v>0.43117229129662499</v>
       </c>
       <c r="P419">
-        <v>0.56353591160220995</v>
+        <v>0.56449704142011803</v>
       </c>
       <c r="R419">
         <v>0.52932960893854697</v>
@@ -19886,10 +19950,10 @@
         <v>0.13953488372093001</v>
       </c>
       <c r="H420">
-        <v>5.5555555555555497E-2</v>
+        <v>5.5214723926380299E-2</v>
       </c>
       <c r="J420">
-        <v>0.14775160599571699</v>
+        <v>0.14838709677419301</v>
       </c>
       <c r="L420">
         <v>0.26877470355731198</v>
@@ -19898,7 +19962,7 @@
         <v>0.431880108991825</v>
       </c>
       <c r="P420">
-        <v>0.56511254019292601</v>
+        <v>0.566090799517878</v>
       </c>
       <c r="R420">
         <v>0.53766617429837504</v>
@@ -19921,10 +19985,10 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H421">
-        <v>6.2111801242236003E-2</v>
+        <v>6.1728395061728301E-2</v>
       </c>
       <c r="J421">
-        <v>0.15021459227467801</v>
+        <v>0.15053763440860199</v>
       </c>
       <c r="L421">
         <v>0.27258064516128999</v>
@@ -19933,7 +19997,7 @@
         <v>0.43480278422273699</v>
       </c>
       <c r="P421">
-        <v>0.571134020618556</v>
+        <v>0.57213520197856504</v>
       </c>
       <c r="R421">
         <v>0.53834355828220803</v>
@@ -19956,19 +20020,19 @@
         <v>0.15</v>
       </c>
       <c r="H422">
-        <v>6.9620253164556903E-2</v>
+        <v>6.9182389937106903E-2</v>
       </c>
       <c r="J422">
-        <v>0.15212527964205799</v>
+        <v>0.15246636771300401</v>
       </c>
       <c r="L422">
         <v>0.27500000000000002</v>
       </c>
       <c r="N422">
-        <v>0.43963443963443899</v>
+        <v>0.43990384615384598</v>
       </c>
       <c r="P422">
-        <v>0.57669491525423699</v>
+        <v>0.57772130453197801</v>
       </c>
       <c r="R422">
         <v>0.54620462046204599</v>
@@ -19991,19 +20055,19 @@
         <v>0.135135135135135</v>
       </c>
       <c r="H423">
-        <v>0.08</v>
+        <v>7.9470198675496595E-2</v>
       </c>
       <c r="J423">
-        <v>0.14976958525345599</v>
+        <v>0.15011547344110801</v>
       </c>
       <c r="L423">
-        <v>0.28225108225108198</v>
+        <v>0.28249566724436698</v>
       </c>
       <c r="N423">
-        <v>0.44637537239324698</v>
+        <v>0.44687189672293898</v>
       </c>
       <c r="P423">
-        <v>0.58479020979020901</v>
+        <v>0.58584534731323701</v>
       </c>
       <c r="R423">
         <v>0.54006968641114905</v>
@@ -20026,19 +20090,19 @@
         <v>0.13157894736842099</v>
       </c>
       <c r="H424">
-        <v>0.08</v>
+        <v>7.9470198675496595E-2</v>
       </c>
       <c r="J424">
-        <v>0.14657210401891199</v>
+        <v>0.14691943127962001</v>
       </c>
       <c r="L424">
-        <v>0.28200537153088601</v>
+        <v>0.282258064516129</v>
       </c>
       <c r="N424">
-        <v>0.44989775051124697</v>
+        <v>0.45040899795500999</v>
       </c>
       <c r="P424">
-        <v>0.58947841726618699</v>
+        <v>0.59056179775280904</v>
       </c>
       <c r="R424">
         <v>0.54730983302411795</v>
@@ -20061,19 +20125,19 @@
         <v>0.128205128205128</v>
       </c>
       <c r="H425">
-        <v>8.3333333333333301E-2</v>
+        <v>8.2758620689655102E-2</v>
       </c>
       <c r="J425">
-        <v>0.14285714285714199</v>
+        <v>0.14320388349514501</v>
       </c>
       <c r="L425">
-        <v>0.287155963302752</v>
+        <v>0.28741965105601402</v>
       </c>
       <c r="N425">
-        <v>0.45021186440677902</v>
+        <v>0.45074152542372797</v>
       </c>
       <c r="P425">
-        <v>0.59325946445059996</v>
+        <v>0.594370096908168</v>
       </c>
       <c r="R425">
         <v>0.55192307692307696</v>
@@ -20096,19 +20160,19 @@
         <v>0.13157894736842099</v>
       </c>
       <c r="H426">
-        <v>8.8235294117646995E-2</v>
+        <v>8.7591240875912399E-2</v>
       </c>
       <c r="J426">
-        <v>0.14898989898989801</v>
+        <v>0.14936708860759401</v>
       </c>
       <c r="L426">
-        <v>0.28571428571428498</v>
+        <v>0.28598484848484801</v>
       </c>
       <c r="N426">
-        <v>0.45594713656387598</v>
+        <v>0.45649779735682799</v>
       </c>
       <c r="P426">
-        <v>0.59827833572453304</v>
+        <v>0.59942638623326905</v>
       </c>
       <c r="R426">
         <v>0.57053941908713601</v>
@@ -20131,19 +20195,19 @@
         <v>0.13888888888888801</v>
       </c>
       <c r="H427">
-        <v>9.7744360902255606E-2</v>
+        <v>9.7014925373134303E-2</v>
       </c>
       <c r="J427">
-        <v>0.147668393782383</v>
+        <v>0.14805194805194799</v>
       </c>
       <c r="L427">
-        <v>0.28842315369261401</v>
+        <v>0.28871128871128798</v>
       </c>
       <c r="N427">
-        <v>0.46324786324786299</v>
+        <v>0.46381766381766298</v>
       </c>
       <c r="P427">
-        <v>0.605879422022919</v>
+        <v>0.60707171314741004</v>
       </c>
       <c r="R427">
         <v>0.579520697167756</v>
@@ -20166,19 +20230,19 @@
         <v>0.13888888888888801</v>
       </c>
       <c r="H428">
-        <v>0.106870229007633</v>
+        <v>0.10606060606060599</v>
       </c>
       <c r="J428">
-        <v>0.15384615384615299</v>
+        <v>0.154255319148936</v>
       </c>
       <c r="L428">
-        <v>0.28542094455852102</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="N428">
-        <v>0.46647058823529403</v>
+        <v>0.46705882352941103</v>
       </c>
       <c r="P428">
-        <v>0.610967408173823</v>
+        <v>0.61220268872802397</v>
       </c>
       <c r="R428">
         <v>0.60092807424593897</v>
@@ -20201,19 +20265,19 @@
         <v>0.14705882352941099</v>
       </c>
       <c r="H429">
-        <v>0.100775193798449</v>
+        <v>0.1</v>
       </c>
       <c r="J429">
-        <v>0.163487738419618</v>
+        <v>0.16393442622950799</v>
       </c>
       <c r="L429">
-        <v>0.29468085106382902</v>
+        <v>0.29499467518636802</v>
       </c>
       <c r="N429">
-        <v>0.46803377563329301</v>
+        <v>0.468636911942098</v>
       </c>
       <c r="P429">
-        <v>0.61252653927813105</v>
+        <v>0.61379310344827498</v>
       </c>
       <c r="R429">
         <v>0.61786600496277899</v>
@@ -20236,19 +20300,19 @@
         <v>0.14705882352941099</v>
       </c>
       <c r="H430">
-        <v>0.109375</v>
+        <v>0.108527131782945</v>
       </c>
       <c r="J430">
-        <v>0.16806722689075601</v>
+        <v>0.16853932584269599</v>
       </c>
       <c r="L430">
-        <v>0.29770992366412202</v>
+        <v>0.29803493449781598</v>
       </c>
       <c r="N430">
-        <v>0.47869674185463601</v>
+        <v>0.47932330827067599</v>
       </c>
       <c r="P430">
-        <v>0.62111111111111095</v>
+        <v>0.62243198223209295</v>
       </c>
       <c r="R430">
         <v>0.64456233421750597</v>
@@ -20271,19 +20335,19 @@
         <v>0.15151515151515099</v>
       </c>
       <c r="H431">
-        <v>0.11023622047244</v>
+        <v>0.109375</v>
       </c>
       <c r="J431">
-        <v>0.16959064327485299</v>
+        <v>0.17008797653958899</v>
       </c>
       <c r="L431">
-        <v>0.30188679245283001</v>
+        <v>0.302222222222222</v>
       </c>
       <c r="N431">
-        <v>0.48457583547557798</v>
+        <v>0.48553054662379402</v>
       </c>
       <c r="P431">
-        <v>0.623072529982866</v>
+        <v>0.62442922374429199</v>
       </c>
       <c r="R431">
         <v>0.66016713091921997</v>
@@ -20306,19 +20370,19 @@
         <v>0.15151515151515099</v>
       </c>
       <c r="H432">
-        <v>0.114754098360655</v>
+        <v>0.113821138211382</v>
       </c>
       <c r="J432">
-        <v>0.16969696969696901</v>
+        <v>0.170212765957446</v>
       </c>
       <c r="L432">
-        <v>0.30171428571428499</v>
+        <v>0.30205949656750503</v>
       </c>
       <c r="N432">
-        <v>0.486037234042553</v>
+        <v>0.48702594810379202</v>
       </c>
       <c r="P432">
-        <v>0.62485276796230804</v>
+        <v>0.62625073572689804</v>
       </c>
       <c r="R432">
         <v>0.66951566951566899</v>
@@ -20341,19 +20405,19 @@
         <v>0.12121212121212099</v>
       </c>
       <c r="H433">
-        <v>0.126050420168067</v>
+        <v>0.125</v>
       </c>
       <c r="J433">
-        <v>0.162420382165605</v>
+        <v>0.16293929712460001</v>
       </c>
       <c r="L433">
-        <v>0.30046948356807501</v>
+        <v>0.30082256169212601</v>
       </c>
       <c r="N433">
-        <v>0.48980978260869501</v>
+        <v>0.49082256968048898</v>
       </c>
       <c r="P433">
-        <v>0.62522631261315598</v>
+        <v>0.62665862484921597</v>
       </c>
       <c r="R433">
         <v>0.66961651917404097</v>
@@ -20376,19 +20440,19 @@
         <v>0.12121212121212099</v>
       </c>
       <c r="H434">
-        <v>0.12931034482758599</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="J434">
         <v>0.16161616161616099</v>
       </c>
       <c r="L434">
-        <v>0.30195599022004799</v>
+        <v>0.30232558139534799</v>
       </c>
       <c r="N434">
-        <v>0.49371508379888202</v>
+        <v>0.494758909853249</v>
       </c>
       <c r="P434">
-        <v>0.62889165628891597</v>
+        <v>0.63036714374611003</v>
       </c>
       <c r="R434">
         <v>0.68690095846645305</v>
@@ -20411,19 +20475,19 @@
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="H435">
-        <v>0.144067796610169</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="J435">
         <v>0.16376306620209</v>
       </c>
       <c r="L435">
-        <v>0.30341340075853301</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="N435">
-        <v>0.50289435600578802</v>
+        <v>0.50398262128892102</v>
       </c>
       <c r="P435">
-        <v>0.63337628865979301</v>
+        <v>0.63490019317450097</v>
       </c>
       <c r="R435">
         <v>0.68976897689768901</v>
@@ -20446,19 +20510,19 @@
         <v>0.1</v>
       </c>
       <c r="H436">
-        <v>0.14655172413793099</v>
+        <v>0.145299145299145</v>
       </c>
       <c r="J436">
         <v>0.16606498194945801</v>
       </c>
       <c r="L436">
-        <v>0.30515191545574599</v>
+        <v>0.30555555555555503</v>
       </c>
       <c r="N436">
-        <v>0.50596125186289098</v>
+        <v>0.50708426547352703</v>
       </c>
       <c r="P436">
-        <v>0.63970588235294101</v>
+        <v>0.64128256513026005</v>
       </c>
       <c r="R436">
         <v>0.68941979522184305</v>
@@ -20481,19 +20545,19 @@
         <v>0.1</v>
       </c>
       <c r="H437">
-        <v>0.160714285714285</v>
+        <v>0.15929203539823</v>
       </c>
       <c r="J437">
         <v>0.164794007490636</v>
       </c>
       <c r="L437">
-        <v>0.30904183535762397</v>
+        <v>0.30945945945945902</v>
       </c>
       <c r="N437">
-        <v>0.50965250965250897</v>
+        <v>0.51042471042471005</v>
       </c>
       <c r="P437">
-        <v>0.64392905866302796</v>
+        <v>0.64553510565780503</v>
       </c>
       <c r="R437">
         <v>0.69014084507042195</v>
@@ -20516,19 +20580,19 @@
         <v>9.375E-2</v>
       </c>
       <c r="H438">
-        <v>0.151785714285714</v>
+        <v>0.15044247787610601</v>
       </c>
       <c r="J438">
         <v>0.14285714285714199</v>
       </c>
       <c r="L438">
-        <v>0.31015299026425502</v>
+        <v>0.31058495821727</v>
       </c>
       <c r="N438">
-        <v>0.50913423351866505</v>
+        <v>0.50992851469420097</v>
       </c>
       <c r="P438">
-        <v>0.65056818181818099</v>
+        <v>0.65223562810503899</v>
       </c>
       <c r="R438">
         <v>0.68928571428571395</v>
@@ -20551,19 +20615,19 @@
         <v>9.375E-2</v>
       </c>
       <c r="H439">
-        <v>0.155963302752293</v>
+        <v>0.15454545454545399</v>
       </c>
       <c r="J439">
         <v>0.133603238866396</v>
       </c>
       <c r="L439">
-        <v>0.30890804597701099</v>
+        <v>0.30935251798561098</v>
       </c>
       <c r="N439">
-        <v>0.50648298217179899</v>
+        <v>0.50688259109311695</v>
       </c>
       <c r="P439">
-        <v>0.64868804664723001</v>
+        <v>0.650400582665695</v>
       </c>
       <c r="R439">
         <v>0.6875</v>
@@ -20586,19 +20650,19 @@
         <v>6.8965517241379296E-2</v>
       </c>
       <c r="H440">
-        <v>0.161904761904761</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="J440">
         <v>0.132231404958677</v>
       </c>
       <c r="L440">
-        <v>0.30735294117647</v>
+        <v>0.30780559646539002</v>
       </c>
       <c r="N440">
-        <v>0.50881612090680095</v>
+        <v>0.509228187919463</v>
       </c>
       <c r="P440">
-        <v>0.648484848484848</v>
+        <v>0.64950794852384497</v>
       </c>
       <c r="R440">
         <v>0.68821292775665399</v>
@@ -20621,19 +20685,19 @@
         <v>7.69230769230769E-2</v>
       </c>
       <c r="H441">
-        <v>0.17</v>
+        <v>0.16831683168316799</v>
       </c>
       <c r="J441">
         <v>0.125</v>
       </c>
       <c r="L441">
-        <v>0.31182795698924698</v>
+        <v>0.31230769230769201</v>
       </c>
       <c r="N441">
-        <v>0.50608695652173896</v>
+        <v>0.506516072980017</v>
       </c>
       <c r="P441">
-        <v>0.64581704456606703</v>
+        <v>0.64687499999999998</v>
       </c>
       <c r="R441">
         <v>0.68273092369477895</v>
@@ -20656,19 +20720,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H442">
-        <v>0.17</v>
+        <v>0.16831683168316799</v>
       </c>
       <c r="J442">
         <v>0.125</v>
       </c>
       <c r="L442">
-        <v>0.31269841269841198</v>
+        <v>0.31319554848966602</v>
       </c>
       <c r="N442">
-        <v>0.49954995499549898</v>
+        <v>0.49955076370170698</v>
       </c>
       <c r="P442">
-        <v>0.64487489911218698</v>
+        <v>0.64596774193548301</v>
       </c>
       <c r="R442">
         <v>0.69098712446351895</v>
@@ -20691,19 +20755,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H443">
-        <v>0.17525773195876199</v>
+        <v>0.17346938775510201</v>
       </c>
       <c r="J443">
         <v>0.128888888888888</v>
       </c>
       <c r="L443">
-        <v>0.31331168831168799</v>
+        <v>0.31382113821138202</v>
       </c>
       <c r="N443">
-        <v>0.50278293135435903</v>
+        <v>0.50277777777777699</v>
       </c>
       <c r="P443">
-        <v>0.64966555183946395</v>
+        <v>0.65079365079365004</v>
       </c>
       <c r="R443">
         <v>0.69642857142857095</v>
@@ -20726,19 +20790,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H444">
-        <v>0.18279569892473099</v>
+        <v>0.180851063829787</v>
       </c>
       <c r="J444">
         <v>0.122171945701357</v>
       </c>
       <c r="L444">
-        <v>0.31229235880398598</v>
+        <v>0.31281198003327698</v>
       </c>
       <c r="N444">
-        <v>0.50048309178743899</v>
+        <v>0.50048216007714497</v>
       </c>
       <c r="P444">
-        <v>0.65711805555555503</v>
+        <v>0.65828274067649595</v>
       </c>
       <c r="R444">
         <v>0.69158878504672805</v>
@@ -20761,19 +20825,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H445">
-        <v>0.19354838709677399</v>
+        <v>0.19148936170212699</v>
       </c>
       <c r="J445">
-        <v>0.123853211009174</v>
+        <v>0.123287671232876</v>
       </c>
       <c r="L445">
-        <v>0.30993150684931497</v>
+        <v>0.31046312178387597</v>
       </c>
       <c r="N445">
-        <v>0.50245821042281202</v>
+        <v>0.50245338567222697</v>
       </c>
       <c r="P445">
-        <v>0.65794223826714804</v>
+        <v>0.659152389540126</v>
       </c>
       <c r="R445">
         <v>0.69230769230769196</v>
@@ -20796,19 +20860,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H446">
-        <v>0.19101123595505601</v>
+        <v>0.188888888888888</v>
       </c>
       <c r="J446">
-        <v>0.122727272727272</v>
+        <v>0.122171945701357</v>
       </c>
       <c r="L446">
-        <v>0.30687830687830597</v>
+        <v>0.307420494699646</v>
       </c>
       <c r="N446">
-        <v>0.495</v>
+        <v>0.49500998003991997</v>
       </c>
       <c r="P446">
-        <v>0.657355679702048</v>
+        <v>0.65860465116278999</v>
       </c>
       <c r="R446">
         <v>0.70098039215686203</v>
@@ -20831,19 +20895,19 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="H447">
-        <v>0.16470588235294101</v>
+        <v>0.16279069767441801</v>
       </c>
       <c r="J447">
-        <v>0.127962085308056</v>
+        <v>0.12735849056603701</v>
       </c>
       <c r="L447">
-        <v>0.303249097472924</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="N447">
-        <v>0.497435897435897</v>
+        <v>0.497441146366427</v>
       </c>
       <c r="P447">
-        <v>0.659574468085106</v>
+        <v>0.66086956521739104</v>
       </c>
       <c r="R447">
         <v>0.70618556701030899</v>
@@ -20866,19 +20930,19 @@
         <v>7.4074074074074001E-2</v>
       </c>
       <c r="H448">
-        <v>0.180722891566265</v>
+        <v>0.17857142857142799</v>
       </c>
       <c r="J448">
-        <v>0.12871287128712799</v>
+        <v>0.12807881773398999</v>
       </c>
       <c r="L448">
-        <v>0.303538175046554</v>
+        <v>0.30410447761193998</v>
       </c>
       <c r="N448">
-        <v>0.49784946236559102</v>
+        <v>0.49785407725321801</v>
       </c>
       <c r="P448">
-        <v>0.65685279187817203</v>
+        <v>0.65821501014198702</v>
       </c>
       <c r="R448">
         <v>0.72538860103626901</v>
@@ -20901,19 +20965,19 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="H449">
-        <v>0.2</v>
+        <v>0.19753086419752999</v>
       </c>
       <c r="J449">
-        <v>0.13917525773195799</v>
+        <v>0.138461538461538</v>
       </c>
       <c r="L449">
-        <v>0.30210325047801101</v>
+        <v>0.30268199233716397</v>
       </c>
       <c r="N449">
-        <v>0.49386845039018901</v>
+        <v>0.49388209121245802</v>
       </c>
       <c r="P449">
-        <v>0.65396825396825398</v>
+        <v>0.65539112050739901</v>
       </c>
       <c r="R449">
         <v>0.72105263157894695</v>
@@ -20936,19 +21000,19 @@
         <v>4.1666666666666602E-2</v>
       </c>
       <c r="H450">
-        <v>0.189873417721519</v>
+        <v>0.1875</v>
       </c>
       <c r="J450">
-        <v>0.14361702127659501</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="L450">
-        <v>0.30830039525691699</v>
+        <v>0.30891089108910802</v>
       </c>
       <c r="N450">
-        <v>0.49656750572082298</v>
+        <v>0.49657534246575302</v>
       </c>
       <c r="P450">
-        <v>0.65586592178770897</v>
+        <v>0.65810055865921702</v>
       </c>
       <c r="R450">
         <v>0.71195652173913004</v>
@@ -20971,19 +21035,19 @@
         <v>4.1666666666666602E-2</v>
       </c>
       <c r="H451">
-        <v>0.197368421052631</v>
+        <v>0.19480519480519401</v>
       </c>
       <c r="J451">
-        <v>0.13978494623655899</v>
+        <v>0.13903743315507999</v>
       </c>
       <c r="L451">
-        <v>0.31546391752577302</v>
+        <v>0.31611570247933801</v>
       </c>
       <c r="N451">
-        <v>0.495848161328588</v>
+        <v>0.49585798816568</v>
       </c>
       <c r="P451">
-        <v>0.65437788018433096</v>
+        <v>0.65668202764976902</v>
       </c>
       <c r="R451">
         <v>0.70391061452513903</v>
@@ -21009,16 +21073,16 @@
         <v>0.2</v>
       </c>
       <c r="J452">
-        <v>0.13142857142857101</v>
+        <v>0.13068181818181801</v>
       </c>
       <c r="L452">
-        <v>0.31914893617021201</v>
+        <v>0.31982942430703598</v>
       </c>
       <c r="N452">
-        <v>0.48899755501222397</v>
+        <v>0.48902439024390199</v>
       </c>
       <c r="P452">
-        <v>0.648745519713261</v>
+        <v>0.65113500597371499</v>
       </c>
       <c r="R452">
         <v>0.7</v>
@@ -21044,16 +21108,16 @@
         <v>0.21126760563380201</v>
       </c>
       <c r="J453">
-        <v>0.136904761904761</v>
+        <v>0.13609467455621299</v>
       </c>
       <c r="L453">
-        <v>0.32222222222222202</v>
+        <v>0.32293986636971</v>
       </c>
       <c r="N453">
-        <v>0.49180327868852403</v>
+        <v>0.49182389937106902</v>
       </c>
       <c r="P453">
-        <v>0.64567901234567904</v>
+        <v>0.64691358024691303</v>
       </c>
       <c r="R453">
         <v>0.702380952380952</v>
@@ -21079,13 +21143,13 @@
         <v>0.21126760563380201</v>
       </c>
       <c r="J454">
-        <v>0.12962962962962901</v>
+        <v>0.12883435582822</v>
       </c>
       <c r="L454">
-        <v>0.32867132867132798</v>
+        <v>0.329439252336448</v>
       </c>
       <c r="N454">
-        <v>0.493351063829787</v>
+        <v>0.49336870026525198</v>
       </c>
       <c r="P454">
         <v>0.64453125</v>
@@ -21114,13 +21178,13 @@
         <v>0.217391304347826</v>
       </c>
       <c r="J455">
-        <v>0.126582278481012</v>
+        <v>0.125786163522012</v>
       </c>
       <c r="L455">
-        <v>0.33254156769596199</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N455">
-        <v>0.49152542372881303</v>
+        <v>0.49154929577464701</v>
       </c>
       <c r="P455">
         <v>0.64432284541723595</v>
@@ -21149,13 +21213,13 @@
         <v>0.22727272727272699</v>
       </c>
       <c r="J456">
-        <v>0.12903225806451599</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="L456">
-        <v>0.326829268292682</v>
+        <v>0.32762836185819</v>
       </c>
       <c r="N456">
-        <v>0.49096385542168602</v>
+        <v>0.49099099099098997</v>
       </c>
       <c r="P456">
         <v>0.64814814814814803</v>
@@ -21184,13 +21248,13 @@
         <v>0.23076923076923</v>
       </c>
       <c r="J457">
-        <v>0.13103448275862001</v>
+        <v>0.130136986301369</v>
       </c>
       <c r="L457">
-        <v>0.317135549872122</v>
+        <v>0.31794871794871699</v>
       </c>
       <c r="N457">
-        <v>0.490536277602523</v>
+        <v>0.48979591836734598</v>
       </c>
       <c r="P457">
         <v>0.65321375186845998</v>
@@ -21219,13 +21283,13 @@
         <v>0.246153846153846</v>
       </c>
       <c r="J458">
-        <v>0.131944444444444</v>
+        <v>0.13103448275862001</v>
       </c>
       <c r="L458">
-        <v>0.31315789473684202</v>
+        <v>0.31398416886543501</v>
       </c>
       <c r="N458">
-        <v>0.48408710217755402</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="P458">
         <v>0.65224358974358898</v>
@@ -21254,13 +21318,13 @@
         <v>0.25</v>
       </c>
       <c r="J459">
-        <v>0.12676056338028099</v>
+        <v>0.125874125874125</v>
       </c>
       <c r="L459">
-        <v>0.32231404958677601</v>
+        <v>0.32320441988950199</v>
       </c>
       <c r="N459">
-        <v>0.486865148861646</v>
+        <v>0.48606271777003401</v>
       </c>
       <c r="P459">
         <v>0.65261382799325396</v>
@@ -21289,13 +21353,13 @@
         <v>0.25806451612903197</v>
       </c>
       <c r="J460">
-        <v>0.13043478260869501</v>
+        <v>0.12949640287769701</v>
       </c>
       <c r="L460">
-        <v>0.31830985915492899</v>
+        <v>0.31920903954802199</v>
       </c>
       <c r="N460">
-        <v>0.48901098901098899</v>
+        <v>0.48816029143897999</v>
       </c>
       <c r="P460">
         <v>0.65309734513274298</v>
@@ -21324,13 +21388,13 @@
         <v>0.25806451612903197</v>
       </c>
       <c r="J461">
-        <v>0.133333333333333</v>
+        <v>0.13235294117647001</v>
       </c>
       <c r="L461">
-        <v>0.30973451327433599</v>
+        <v>0.31065088757396397</v>
       </c>
       <c r="N461">
-        <v>0.49027237354085601</v>
+        <v>0.490310077519379</v>
       </c>
       <c r="P461">
         <v>0.64671814671814598</v>
@@ -21359,13 +21423,13 @@
         <v>0.266666666666666</v>
       </c>
       <c r="J462">
-        <v>0.134920634920634</v>
+        <v>0.133858267716535</v>
       </c>
       <c r="L462">
-        <v>0.3125</v>
+        <v>0.31347962382445099</v>
       </c>
       <c r="N462">
-        <v>0.49484536082474201</v>
+        <v>0.49486652977412698</v>
       </c>
       <c r="P462">
         <v>0.64915966386554602</v>
@@ -21397,10 +21461,10 @@
         <v>0.11864406779661001</v>
       </c>
       <c r="L463">
-        <v>0.32013201320132001</v>
+        <v>0.32119205298013198</v>
       </c>
       <c r="N463">
-        <v>0.49572649572649502</v>
+        <v>0.49574468085106299</v>
       </c>
       <c r="P463">
         <v>0.64719101123595502</v>
@@ -21435,7 +21499,7 @@
         <v>0.31944444444444398</v>
       </c>
       <c r="N464">
-        <v>0.5</v>
+        <v>0.49887640449438198</v>
       </c>
       <c r="P464">
         <v>0.64663461538461497</v>
@@ -21467,10 +21531,10 @@
         <v>0.133333333333333</v>
       </c>
       <c r="L465">
-        <v>0.31365313653136501</v>
+        <v>0.3125</v>
       </c>
       <c r="N465">
-        <v>0.49638554216867398</v>
+        <v>0.49400479616306903</v>
       </c>
       <c r="P465">
         <v>0.63775510204081598</v>
@@ -21502,10 +21566,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L466">
-        <v>0.31034482758620602</v>
+        <v>0.31297709923664102</v>
       </c>
       <c r="N466">
-        <v>0.48607594936708798</v>
+        <v>0.48362720403022602</v>
       </c>
       <c r="P466">
         <v>0.62834224598930399</v>
@@ -21537,10 +21601,10 @@
         <v>0.13541666666666599</v>
       </c>
       <c r="L467">
-        <v>0.30364372469635598</v>
+        <v>0.30645161290322498</v>
       </c>
       <c r="N467">
-        <v>0.49076517150395699</v>
+        <v>0.488188976377952</v>
       </c>
       <c r="P467">
         <v>0.629943502824858</v>
@@ -21572,10 +21636,10 @@
         <v>0.13483146067415699</v>
       </c>
       <c r="L468">
-        <v>0.30932203389830498</v>
+        <v>0.31223628691983102</v>
       </c>
       <c r="N468">
-        <v>0.5</v>
+        <v>0.497206703910614</v>
       </c>
       <c r="P468">
         <v>0.62762762762762703</v>
@@ -21607,10 +21671,10 @@
         <v>0.13953488372093001</v>
       </c>
       <c r="L469">
-        <v>0.31004366812227002</v>
+        <v>0.31304347826086898</v>
       </c>
       <c r="N469">
-        <v>0.49702380952380898</v>
+        <v>0.49408284023668603</v>
       </c>
       <c r="P469">
         <v>0.629746835443038</v>
@@ -21642,10 +21706,10 @@
         <v>0.13580246913580199</v>
       </c>
       <c r="L470">
-        <v>0.31775700934579398</v>
+        <v>0.32093023255813902</v>
       </c>
       <c r="N470">
-        <v>0.49695121951219501</v>
+        <v>0.49393939393939301</v>
       </c>
       <c r="P470">
         <v>0.63</v>
@@ -21677,10 +21741,10 @@
         <v>0.11688311688311601</v>
       </c>
       <c r="L471">
-        <v>0.30952380952380898</v>
+        <v>0.31279620853080498</v>
       </c>
       <c r="N471">
-        <v>0.495145631067961</v>
+        <v>0.49196141479099598</v>
       </c>
       <c r="P471">
         <v>0.628571428571428</v>
@@ -21712,10 +21776,10 @@
         <v>0.10666666666666599</v>
       </c>
       <c r="L472">
-        <v>0.30499999999999999</v>
+        <v>0.308457711442786</v>
       </c>
       <c r="N472">
-        <v>0.49319727891156401</v>
+        <v>0.48986486486486402</v>
       </c>
       <c r="P472">
         <v>0.631178707224334</v>
@@ -21747,10 +21811,10 @@
         <v>0.10958904109589</v>
       </c>
       <c r="L473">
-        <v>0.29891304347825998</v>
+        <v>0.302702702702702</v>
       </c>
       <c r="N473">
-        <v>0.47826086956521702</v>
+        <v>0.47482014388489202</v>
       </c>
       <c r="P473">
         <v>0.63052208835341295</v>
@@ -21782,10 +21846,10 @@
         <v>0.125</v>
       </c>
       <c r="L474">
-        <v>0.31460674157303298</v>
+        <v>0.31843575418994402</v>
       </c>
       <c r="N474">
-        <v>0.475285171102661</v>
+        <v>0.47169811320754701</v>
       </c>
       <c r="P474">
         <v>0.62704918032786805</v>
@@ -21817,10 +21881,10 @@
         <v>0.128571428571428</v>
       </c>
       <c r="L475">
-        <v>0.33146067415730301</v>
+        <v>0.33519553072625602</v>
       </c>
       <c r="N475">
-        <v>0.46887966804979198</v>
+        <v>0.46502057613168701</v>
       </c>
       <c r="P475">
         <v>0.62608695652173896</v>
@@ -21852,10 +21916,10 @@
         <v>0.13636363636363599</v>
       </c>
       <c r="L476">
-        <v>0.33136094674556199</v>
+        <v>0.33529411764705802</v>
       </c>
       <c r="N476">
-        <v>0.464912280701754</v>
+        <v>0.46086956521739098</v>
       </c>
       <c r="P476">
         <v>0.61792452830188604</v>
@@ -21887,10 +21951,10 @@
         <v>0.140625</v>
       </c>
       <c r="L477">
-        <v>0.32704402515723202</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="N477">
-        <v>0.44651162790697602</v>
+        <v>0.44239631336405499</v>
       </c>
       <c r="P477">
         <v>0.61538461538461497</v>
@@ -21922,10 +21986,10 @@
         <v>0.133333333333333</v>
       </c>
       <c r="L478">
-        <v>0.33548387096774102</v>
+        <v>0.33974358974358898</v>
       </c>
       <c r="N478">
-        <v>0.445544554455445</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="P478">
         <v>0.62234042553191404</v>
@@ -21957,10 +22021,10 @@
         <v>0.12727272727272701</v>
       </c>
       <c r="L479">
-        <v>0.34265734265734199</v>
+        <v>0.34722222222222199</v>
       </c>
       <c r="N479">
-        <v>0.43684210526315698</v>
+        <v>0.43455497382198899</v>
       </c>
       <c r="P479">
         <v>0.61176470588235299</v>
@@ -21992,10 +22056,10 @@
         <v>0.13207547169811301</v>
       </c>
       <c r="L480">
-        <v>0.34782608695652101</v>
+        <v>0.35251798561150999</v>
       </c>
       <c r="N480">
-        <v>0.43103448275862</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="P480">
         <v>0.59119496855345899</v>
@@ -22027,7 +22091,7 @@
         <v>0.134615384615384</v>
       </c>
       <c r="L481">
-        <v>0.34074074074074001</v>
+        <v>0.34558823529411697</v>
       </c>
       <c r="N481">
         <v>0.41249999999999998</v>
@@ -22062,13 +22126,13 @@
         <v>0.11764705882352899</v>
       </c>
       <c r="L482">
-        <v>0.35658914728682101</v>
+        <v>0.36153846153846098</v>
       </c>
       <c r="N482">
         <v>0.41401273885350298</v>
       </c>
       <c r="P482">
-        <v>0.61805555555555503</v>
+        <v>0.62068965517241304</v>
       </c>
       <c r="R482">
         <v>0.69491525423728795</v>
@@ -22097,13 +22161,13 @@
         <v>0.13725490196078399</v>
       </c>
       <c r="L483">
-        <v>0.34146341463414598</v>
+        <v>0.34677419354838701</v>
       </c>
       <c r="N483">
         <v>0.40136054421768702</v>
       </c>
       <c r="P483">
-        <v>0.63235294117647001</v>
+        <v>0.63503649635036497</v>
       </c>
       <c r="R483">
         <v>0.68965517241379304</v>
@@ -22132,13 +22196,13 @@
         <v>0.163265306122448</v>
       </c>
       <c r="L484">
-        <v>0.330578512396694</v>
+        <v>0.33606557377049101</v>
       </c>
       <c r="N484">
         <v>0.41984732824427401</v>
       </c>
       <c r="P484">
-        <v>0.63076923076922997</v>
+        <v>0.63358778625954104</v>
       </c>
       <c r="R484">
         <v>0.68421052631578905</v>
@@ -22161,19 +22225,19 @@
         <v>0.125</v>
       </c>
       <c r="H485">
-        <v>0.375</v>
+        <v>0.41176470588235198</v>
       </c>
       <c r="J485">
         <v>0.18</v>
       </c>
       <c r="L485">
-        <v>0.35398230088495503</v>
+        <v>0.359649122807017</v>
       </c>
       <c r="N485">
         <v>0.41269841269841201</v>
       </c>
       <c r="P485">
-        <v>0.62204724409448797</v>
+        <v>0.625</v>
       </c>
       <c r="R485">
         <v>0.66101694915254205</v>
@@ -22196,19 +22260,19 @@
         <v>0.125</v>
       </c>
       <c r="H486">
-        <v>0.375</v>
+        <v>0.41176470588235198</v>
       </c>
       <c r="J486">
         <v>0.1875</v>
       </c>
       <c r="L486">
-        <v>0.355140186915887</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="N486">
         <v>0.40799999999999997</v>
       </c>
       <c r="P486">
-        <v>0.61475409836065498</v>
+        <v>0.61788617886178798</v>
       </c>
       <c r="R486">
         <v>0.66666666666666596</v>
@@ -22231,19 +22295,19 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H487">
-        <v>0.35714285714285698</v>
+        <v>0.4</v>
       </c>
       <c r="J487">
         <v>0.186046511627906</v>
       </c>
       <c r="L487">
-        <v>0.35576923076923</v>
+        <v>0.36190476190476101</v>
       </c>
       <c r="N487">
         <v>0.42016806722688999</v>
       </c>
       <c r="P487">
-        <v>0.60504201680672198</v>
+        <v>0.60833333333333295</v>
       </c>
       <c r="R487">
         <v>0.66666666666666596</v>
@@ -22266,19 +22330,19 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H488">
-        <v>0.35714285714285698</v>
+        <v>0.4</v>
       </c>
       <c r="J488">
         <v>0.2</v>
       </c>
       <c r="L488">
-        <v>0.33980582524271802</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="N488">
         <v>0.43243243243243201</v>
       </c>
       <c r="P488">
-        <v>0.61261261261261202</v>
+        <v>0.61607142857142805</v>
       </c>
       <c r="R488">
         <v>0.65454545454545399</v>
@@ -22301,19 +22365,19 @@
         <v>0.125</v>
       </c>
       <c r="H489">
-        <v>0.38461538461538403</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="J489">
         <v>0.20512820512820501</v>
       </c>
       <c r="L489">
-        <v>0.36190476190476101</v>
+        <v>0.36792452830188599</v>
       </c>
       <c r="N489">
         <v>0.42307692307692302</v>
       </c>
       <c r="P489">
-        <v>0.59595959595959502</v>
+        <v>0.6</v>
       </c>
       <c r="R489">
         <v>0.65384615384615297</v>
@@ -22336,19 +22400,19 @@
         <v>0.125</v>
       </c>
       <c r="H490">
-        <v>0.28571428571428498</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J490">
         <v>0.162162162162162</v>
       </c>
       <c r="L490">
-        <v>0.34951456310679602</v>
+        <v>0.35576923076923</v>
       </c>
       <c r="N490">
         <v>0.43</v>
       </c>
       <c r="P490">
-        <v>0.61290322580645096</v>
+        <v>0.61702127659574402</v>
       </c>
       <c r="R490">
         <v>0.63043478260869501</v>
@@ -22371,19 +22435,19 @@
         <v>0.125</v>
       </c>
       <c r="H491">
-        <v>0.214285714285714</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="J491">
         <v>0.14705882352941099</v>
       </c>
       <c r="L491">
-        <v>0.36458333333333298</v>
+        <v>0.37113402061855599</v>
       </c>
       <c r="N491">
         <v>0.42268041237113402</v>
       </c>
       <c r="P491">
-        <v>0.62222222222222201</v>
+        <v>0.62637362637362604</v>
       </c>
       <c r="R491">
         <v>0.62222222222222201</v>
@@ -22406,22 +22470,22 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H492">
-        <v>0.214285714285714</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="J492">
         <v>0.14285714285714199</v>
       </c>
       <c r="L492">
-        <v>0.34736842105263099</v>
+        <v>0.35416666666666602</v>
       </c>
       <c r="N492">
         <v>0.40860215053763399</v>
       </c>
       <c r="P492">
-        <v>0.625</v>
+        <v>0.62921348314606695</v>
       </c>
       <c r="R492">
-        <v>0.61363636363636298</v>
+        <v>0.62222222222222201</v>
       </c>
       <c r="T492">
         <v>0.7</v>
@@ -22441,22 +22505,22 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="H493">
-        <v>0.14285714285714199</v>
+        <v>0.2</v>
       </c>
       <c r="J493">
         <v>0.15625</v>
       </c>
       <c r="L493">
-        <v>0.33333333333333298</v>
+        <v>0.34408602150537598</v>
       </c>
       <c r="N493">
         <v>0.38461538461538403</v>
       </c>
       <c r="P493">
-        <v>0.60714285714285698</v>
+        <v>0.623529411764705</v>
       </c>
       <c r="R493">
-        <v>0.64285714285714202</v>
+        <v>0.65116279069767402</v>
       </c>
       <c r="T493">
         <v>0.66666666666666596</v>
@@ -22476,22 +22540,22 @@
         <v>0.125</v>
       </c>
       <c r="H494">
-        <v>0.15384615384615299</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="J494">
         <v>0.15151515151515099</v>
       </c>
       <c r="L494">
-        <v>0.32183908045977</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N494">
         <v>0.40229885057471199</v>
       </c>
       <c r="P494">
-        <v>0.61728395061728303</v>
+        <v>0.63414634146341398</v>
       </c>
       <c r="R494">
-        <v>0.64285714285714202</v>
+        <v>0.65116279069767402</v>
       </c>
       <c r="T494">
         <v>0.66666666666666596</v>
@@ -22511,22 +22575,22 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H495">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J495">
         <v>0.14705882352941099</v>
       </c>
       <c r="L495">
-        <v>0.32222222222222202</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N495">
         <v>0.41666666666666602</v>
       </c>
       <c r="P495">
-        <v>0.62820512820512797</v>
+        <v>0.645569620253164</v>
       </c>
       <c r="R495">
-        <v>0.625</v>
+        <v>0.63414634146341398</v>
       </c>
       <c r="T495">
         <v>0.66666666666666596</v>
@@ -22546,22 +22610,22 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H496">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J496">
         <v>0.14705882352941099</v>
       </c>
       <c r="L496">
-        <v>0.32558139534883701</v>
+        <v>0.337209302325581</v>
       </c>
       <c r="N496">
         <v>0.41975308641975301</v>
       </c>
       <c r="P496">
-        <v>0.61038961038961004</v>
+        <v>0.62820512820512797</v>
       </c>
       <c r="R496">
-        <v>0.60526315789473595</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="T496">
         <v>0.66666666666666596</v>
@@ -22581,22 +22645,22 @@
         <v>0.1</v>
       </c>
       <c r="H497">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J497">
         <v>0.13888888888888801</v>
       </c>
       <c r="L497">
-        <v>0.29487179487179399</v>
+        <v>0.30769230769230699</v>
       </c>
       <c r="N497">
         <v>0.430379746835443</v>
       </c>
       <c r="P497">
-        <v>0.61333333333333295</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="R497">
-        <v>0.60526315789473595</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="T497">
         <v>0.66666666666666596</v>
@@ -22616,22 +22680,22 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="H498">
-        <v>0.1875</v>
+        <v>0.23529411764705799</v>
       </c>
       <c r="J498">
         <v>0.14285714285714199</v>
       </c>
       <c r="L498">
-        <v>0.30263157894736797</v>
+        <v>0.31578947368421001</v>
       </c>
       <c r="N498">
         <v>0.45454545454545398</v>
       </c>
       <c r="P498">
-        <v>0.61038961038961004</v>
+        <v>0.62820512820512797</v>
       </c>
       <c r="R498">
-        <v>0.6</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="T498">
         <v>0.66666666666666596</v>
@@ -22651,22 +22715,22 @@
         <v>0.125</v>
       </c>
       <c r="H499">
-        <v>0.16666666666666599</v>
+        <v>0.21052631578947301</v>
       </c>
       <c r="J499">
         <v>0.157894736842105</v>
       </c>
       <c r="L499">
-        <v>0.30666666666666598</v>
+        <v>0.32</v>
       </c>
       <c r="N499">
         <v>0.46153846153846101</v>
       </c>
       <c r="P499">
-        <v>0.60526315789473595</v>
+        <v>0.62337662337662303</v>
       </c>
       <c r="R499">
-        <v>0.58333333333333304</v>
+        <v>0.59459459459459396</v>
       </c>
       <c r="T499">
         <v>0.71428571428571397</v>
@@ -22686,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="H500">
-        <v>0.11111111111111099</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="J500">
         <v>0.17142857142857101</v>
       </c>
       <c r="L500">
-        <v>0.291139240506329</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="N500">
-        <v>0.45121951219512102</v>
+        <v>0.46341463414634099</v>
       </c>
       <c r="P500">
-        <v>0.59210526315789402</v>
+        <v>0.62337662337662303</v>
       </c>
       <c r="R500">
-        <v>0.6</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="T500">
         <v>0.71428571428571397</v>
@@ -22721,22 +22785,22 @@
         <v>0</v>
       </c>
       <c r="H501">
-        <v>0.11111111111111099</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="J501">
         <v>0.2</v>
       </c>
       <c r="L501">
-        <v>0.3125</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="N501">
-        <v>0.421686746987951</v>
+        <v>0.43373493975903599</v>
       </c>
       <c r="P501">
-        <v>0.586666666666666</v>
+        <v>0.61842105263157898</v>
       </c>
       <c r="R501">
-        <v>0.63888888888888795</v>
+        <v>0.64864864864864802</v>
       </c>
       <c r="T501">
         <v>0.71428571428571397</v>
@@ -22756,22 +22820,22 @@
         <v>0</v>
       </c>
       <c r="H502">
-        <v>0.157894736842105</v>
+        <v>0.2</v>
       </c>
       <c r="J502">
         <v>0.20588235294117599</v>
       </c>
       <c r="L502">
-        <v>0.33333333333333298</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="N502">
-        <v>0.439024390243902</v>
+        <v>0.45121951219512102</v>
       </c>
       <c r="P502">
-        <v>0.58904109589041098</v>
+        <v>0.62162162162162105</v>
       </c>
       <c r="R502">
-        <v>0.65789473684210498</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="T502">
         <v>0.71428571428571397</v>
@@ -22791,22 +22855,22 @@
         <v>0</v>
       </c>
       <c r="H503">
-        <v>0.18181818181818099</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="J503">
         <v>0.18181818181818099</v>
       </c>
       <c r="L503">
-        <v>0.34567901234567899</v>
+        <v>0.35802469135802401</v>
       </c>
       <c r="N503">
-        <v>0.43209876543209802</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="P503">
-        <v>0.57333333333333303</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="R503">
-        <v>0.68421052631578905</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="T503">
         <v>0.71428571428571397</v>
@@ -22826,22 +22890,22 @@
         <v>0</v>
       </c>
       <c r="H504">
-        <v>0.19047619047618999</v>
+        <v>0.22727272727272699</v>
       </c>
       <c r="J504">
         <v>0.18181818181818099</v>
       </c>
       <c r="L504">
-        <v>0.34666666666666601</v>
+        <v>0.36</v>
       </c>
       <c r="N504">
-        <v>0.415584415584415</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="P504">
-        <v>0.56164383561643805</v>
+        <v>0.60526315789473595</v>
       </c>
       <c r="R504">
-        <v>0.67567567567567499</v>
+        <v>0.68421052631578905</v>
       </c>
       <c r="T504">
         <v>0.75</v>
@@ -22861,22 +22925,22 @@
         <v>0</v>
       </c>
       <c r="H505">
-        <v>0.18181818181818099</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="J505">
         <v>0.1875</v>
       </c>
       <c r="L505">
-        <v>0.337662337662337</v>
+        <v>0.35064935064934999</v>
       </c>
       <c r="N505">
-        <v>0.37333333333333302</v>
+        <v>0.38666666666666599</v>
       </c>
       <c r="P505">
-        <v>0.5625</v>
+        <v>0.60240963855421603</v>
       </c>
       <c r="R505">
-        <v>0.67567567567567499</v>
+        <v>0.68421052631578905</v>
       </c>
       <c r="T505">
         <v>0.75</v>
@@ -22896,22 +22960,22 @@
         <v>0</v>
       </c>
       <c r="H506">
-        <v>0.17391304347826</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="J506">
         <v>0.23529411764705799</v>
       </c>
       <c r="L506">
-        <v>0.341772151898734</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="N506">
-        <v>0.392405063291139</v>
+        <v>0.40506329113924</v>
       </c>
       <c r="P506">
-        <v>0.57831325301204795</v>
+        <v>0.62068965517241304</v>
       </c>
       <c r="R506">
-        <v>0.67567567567567499</v>
+        <v>0.68421052631578905</v>
       </c>
       <c r="T506">
         <v>0.66666666666666596</v>
@@ -22931,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="H507">
-        <v>0.15384615384615299</v>
+        <v>0.18518518518518501</v>
       </c>
       <c r="J507">
         <v>0.23684210526315699</v>
       </c>
       <c r="L507">
-        <v>0.36144578313253001</v>
+        <v>0.37804878048780399</v>
       </c>
       <c r="N507">
-        <v>0.39506172839506098</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="P507">
-        <v>0.6</v>
+        <v>0.64044943820224698</v>
       </c>
       <c r="R507">
-        <v>0.66666666666666596</v>
+        <v>0.67567567567567499</v>
       </c>
       <c r="T507">
         <v>0.5</v>
@@ -22966,22 +23030,22 @@
         <v>0</v>
       </c>
       <c r="H508">
-        <v>0.17857142857142799</v>
+        <v>0.20689655172413701</v>
       </c>
       <c r="J508">
         <v>0.219512195121951</v>
       </c>
       <c r="L508">
-        <v>0.35714285714285698</v>
+        <v>0.36144578313253001</v>
       </c>
       <c r="N508">
-        <v>0.39534883720930197</v>
+        <v>0.40697674418604601</v>
       </c>
       <c r="P508">
-        <v>0.60714285714285698</v>
+        <v>0.64772727272727204</v>
       </c>
       <c r="R508">
-        <v>0.66666666666666596</v>
+        <v>0.67567567567567499</v>
       </c>
       <c r="T508">
         <v>0.5</v>
@@ -23001,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="H509">
-        <v>0.17241379310344801</v>
+        <v>0.2</v>
       </c>
       <c r="J509">
         <v>0.2</v>
       </c>
       <c r="L509">
-        <v>0.33707865168539303</v>
+        <v>0.34090909090909</v>
       </c>
       <c r="N509">
-        <v>0.38372093023255799</v>
+        <v>0.39534883720930197</v>
       </c>
       <c r="P509">
-        <v>0.63333333333333297</v>
+        <v>0.67021276595744605</v>
       </c>
       <c r="R509">
-        <v>0.68421052631578905</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="T509">
         <v>0.5</v>
@@ -23036,22 +23100,22 @@
         <v>0</v>
       </c>
       <c r="H510">
-        <v>0.17241379310344801</v>
+        <v>0.2</v>
       </c>
       <c r="J510">
         <v>0.21276595744680801</v>
       </c>
       <c r="L510">
-        <v>0.33707865168539303</v>
+        <v>0.34090909090909</v>
       </c>
       <c r="N510">
-        <v>0.36666666666666597</v>
+        <v>0.37777777777777699</v>
       </c>
       <c r="P510">
-        <v>0.62365591397849396</v>
+        <v>0.65979381443298901</v>
       </c>
       <c r="R510">
-        <v>0.69767441860465096</v>
+        <v>0.70454545454545403</v>
       </c>
       <c r="T510">
         <v>0.5</v>
@@ -23071,22 +23135,22 @@
         <v>0</v>
       </c>
       <c r="H511">
-        <v>0.16129032258064499</v>
+        <v>0.1875</v>
       </c>
       <c r="J511">
         <v>0.21276595744680801</v>
       </c>
       <c r="L511">
-        <v>0.32954545454545398</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N511">
-        <v>0.38297872340425498</v>
+        <v>0.39361702127659498</v>
       </c>
       <c r="P511">
-        <v>0.62365591397849396</v>
+        <v>0.66326530612244805</v>
       </c>
       <c r="R511">
-        <v>0.67441860465116199</v>
+        <v>0.68181818181818099</v>
       </c>
       <c r="T511">
         <v>0.5</v>
@@ -23106,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="H512">
-        <v>0.15625</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="J512">
         <v>0.19230769230769201</v>
       </c>
       <c r="L512">
-        <v>0.31868131868131799</v>
+        <v>0.32222222222222202</v>
       </c>
       <c r="N512">
-        <v>0.39175257731958701</v>
+        <v>0.397959183673469</v>
       </c>
       <c r="P512">
-        <v>0.62637362637362604</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="R512">
-        <v>0.680851063829787</v>
+        <v>0.6875</v>
       </c>
       <c r="T512">
         <v>0.8</v>
@@ -23141,22 +23205,22 @@
         <v>0</v>
       </c>
       <c r="H513">
-        <v>0.14705882352941099</v>
+        <v>0.17142857142857101</v>
       </c>
       <c r="J513">
         <v>0.18181818181818099</v>
       </c>
       <c r="L513">
-        <v>0.33333333333333298</v>
+        <v>0.33695652173912999</v>
       </c>
       <c r="N513">
-        <v>0.40404040404040398</v>
+        <v>0.41</v>
       </c>
       <c r="P513">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="R513">
-        <v>0.67391304347825998</v>
+        <v>0.680851063829787</v>
       </c>
       <c r="T513">
         <v>0.8</v>
@@ -23176,22 +23240,22 @@
         <v>0</v>
       </c>
       <c r="H514">
-        <v>0.13888888888888801</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="J514">
         <v>0.18518518518518501</v>
       </c>
       <c r="L514">
-        <v>0.33333333333333298</v>
+        <v>0.33673469387755101</v>
       </c>
       <c r="N514">
-        <v>0.41237113402061798</v>
+        <v>0.41836734693877498</v>
       </c>
       <c r="P514">
-        <v>0.61052631578947303</v>
+        <v>0.64356435643564303</v>
       </c>
       <c r="R514">
-        <v>0.64583333333333304</v>
+        <v>0.65306122448979498</v>
       </c>
       <c r="T514">
         <v>0.8</v>
@@ -23211,22 +23275,22 @@
         <v>0</v>
       </c>
       <c r="H515">
-        <v>0.11111111111111099</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="J515">
         <v>0.18867924528301799</v>
       </c>
       <c r="L515">
-        <v>0.33980582524271802</v>
+        <v>0.34313725490196001</v>
       </c>
       <c r="N515">
-        <v>0.40404040404040398</v>
+        <v>0.41</v>
       </c>
       <c r="P515">
-        <v>0.60606060606060597</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="R515">
-        <v>0.67346938775510201</v>
+        <v>0.68</v>
       </c>
       <c r="T515">
         <v>0.8</v>
@@ -23246,22 +23310,22 @@
         <v>0</v>
       </c>
       <c r="H516">
-        <v>0.108108108108108</v>
+        <v>0.13157894736842099</v>
       </c>
       <c r="J516">
         <v>0.17307692307692299</v>
       </c>
       <c r="L516">
-        <v>0.33653846153846101</v>
+        <v>0.33980582524271802</v>
       </c>
       <c r="N516">
-        <v>0.41584158415841499</v>
+        <v>0.42156862745098</v>
       </c>
       <c r="P516">
-        <v>0.625</v>
+        <v>0.65454545454545399</v>
       </c>
       <c r="R516">
-        <v>0.71428571428571397</v>
+        <v>0.72</v>
       </c>
       <c r="T516">
         <v>0.75</v>
@@ -23281,22 +23345,22 @@
         <v>0</v>
       </c>
       <c r="H517">
-        <v>0.108108108108108</v>
+        <v>0.13157894736842099</v>
       </c>
       <c r="J517">
         <v>0.18181818181818099</v>
       </c>
       <c r="L517">
-        <v>0.32727272727272699</v>
+        <v>0.34862385321100903</v>
       </c>
       <c r="N517">
-        <v>0.42718446601941701</v>
+        <v>0.43269230769230699</v>
       </c>
       <c r="P517">
-        <v>0.61111111111111105</v>
+        <v>0.640350877192982</v>
       </c>
       <c r="R517">
-        <v>0.70588235294117596</v>
+        <v>0.73076923076922995</v>
       </c>
       <c r="T517">
         <v>0.6</v>
@@ -23316,22 +23380,22 @@
         <v>0</v>
       </c>
       <c r="H518">
-        <v>0.10256410256410201</v>
+        <v>0.125</v>
       </c>
       <c r="J518">
         <v>0.17857142857142799</v>
       </c>
       <c r="L518">
-        <v>0.324561403508771</v>
+        <v>0.34210526315789402</v>
       </c>
       <c r="N518">
-        <v>0.41666666666666602</v>
+        <v>0.42201834862385301</v>
       </c>
       <c r="P518">
-        <v>0.60869565217391297</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="R518">
-        <v>0.70909090909090899</v>
+        <v>0.73214285714285698</v>
       </c>
       <c r="T518">
         <v>0.6</v>
@@ -23351,22 +23415,22 @@
         <v>0</v>
       </c>
       <c r="H519">
-        <v>0.1</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="J519">
         <v>0.18333333333333299</v>
       </c>
       <c r="L519">
-        <v>0.34399999999999997</v>
+        <v>0.36</v>
       </c>
       <c r="N519">
-        <v>0.41666666666666602</v>
+        <v>0.421487603305785</v>
       </c>
       <c r="P519">
-        <v>0.6</v>
+        <v>0.62698412698412698</v>
       </c>
       <c r="R519">
-        <v>0.71428571428571397</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="T519">
         <v>0.6</v>
@@ -23386,22 +23450,22 @@
         <v>0</v>
       </c>
       <c r="H520">
-        <v>9.3023255813953404E-2</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="J520">
         <v>0.17741935483870899</v>
       </c>
       <c r="L520">
-        <v>0.33858267716535401</v>
+        <v>0.35433070866141703</v>
       </c>
       <c r="N520">
-        <v>0.41129032258064502</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="P520">
-        <v>0.60465116279069697</v>
+        <v>0.62962962962962898</v>
       </c>
       <c r="R520">
-        <v>0.70689655172413701</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="T520">
         <v>0.6</v>
@@ -23421,22 +23485,22 @@
         <v>0</v>
       </c>
       <c r="H521">
-        <v>0.11111111111111099</v>
+        <v>0.12765957446808501</v>
       </c>
       <c r="J521">
         <v>0.19696969696969599</v>
       </c>
       <c r="L521">
-        <v>0.32592592592592501</v>
+        <v>0.34814814814814798</v>
       </c>
       <c r="N521">
-        <v>0.41353383458646598</v>
+        <v>0.42537313432835799</v>
       </c>
       <c r="P521">
-        <v>0.58955223880596996</v>
+        <v>0.61428571428571399</v>
       </c>
       <c r="R521">
-        <v>0.71186440677966101</v>
+        <v>0.72580645161290303</v>
       </c>
       <c r="T521">
         <v>0.71428571428571397</v>
@@ -23456,22 +23520,22 @@
         <v>0</v>
       </c>
       <c r="H522">
-        <v>0.108695652173913</v>
+        <v>0.125</v>
       </c>
       <c r="J522">
         <v>0.19696969696969599</v>
       </c>
       <c r="L522">
-        <v>0.32142857142857101</v>
+        <v>0.34285714285714203</v>
       </c>
       <c r="N522">
-        <v>0.41134751773049599</v>
+        <v>0.42253521126760502</v>
       </c>
       <c r="P522">
-        <v>0.57971014492753603</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="R522">
-        <v>0.68852459016393397</v>
+        <v>0.703125</v>
       </c>
       <c r="T522">
         <v>0.75</v>
@@ -23491,22 +23555,22 @@
         <v>0</v>
       </c>
       <c r="H523">
-        <v>0.10204081632653</v>
+        <v>0.11764705882352899</v>
       </c>
       <c r="J523">
         <v>0.188405797101449</v>
       </c>
       <c r="L523">
-        <v>0.31788079470198599</v>
+        <v>0.33774834437085999</v>
       </c>
       <c r="N523">
-        <v>0.41891891891891803</v>
+        <v>0.42953020134228098</v>
       </c>
       <c r="P523">
-        <v>0.57446808510638303</v>
+        <v>0.60544217687074797</v>
       </c>
       <c r="R523">
-        <v>0.69354838709677402</v>
+        <v>0.70769230769230695</v>
       </c>
       <c r="T523">
         <v>0.75</v>
@@ -23526,22 +23590,22 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <v>0.1</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="J524">
         <v>0.214285714285714</v>
       </c>
       <c r="L524">
-        <v>0.30909090909090903</v>
+        <v>0.33132530120481901</v>
       </c>
       <c r="N524">
-        <v>0.40397350993377401</v>
+        <v>0.41176470588235198</v>
       </c>
       <c r="P524">
-        <v>0.578231292517006</v>
+        <v>0.60526315789473595</v>
       </c>
       <c r="R524">
-        <v>0.70149253731343197</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="T524">
         <v>0.75</v>
@@ -23561,22 +23625,22 @@
         <v>0</v>
       </c>
       <c r="H525">
-        <v>9.8039215686274495E-2</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="J525">
         <v>0.194444444444444</v>
       </c>
       <c r="L525">
-        <v>0.29239766081871299</v>
+        <v>0.31213872832369899</v>
       </c>
       <c r="N525">
-        <v>0.41818181818181799</v>
+        <v>0.43373493975903599</v>
       </c>
       <c r="P525">
-        <v>0.56756756756756699</v>
+        <v>0.587096774193548</v>
       </c>
       <c r="R525">
-        <v>0.70422535211267601</v>
+        <v>0.71621621621621601</v>
       </c>
       <c r="T525">
         <v>0.75</v>
@@ -23596,22 +23660,22 @@
         <v>0</v>
       </c>
       <c r="H526">
-        <v>9.0909090909090898E-2</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="J526">
         <v>0.17567567567567499</v>
       </c>
       <c r="L526">
-        <v>0.30219780219780201</v>
+        <v>0.32065217391304301</v>
       </c>
       <c r="N526">
-        <v>0.43678160919540199</v>
+        <v>0.451977401129943</v>
       </c>
       <c r="P526">
-        <v>0.55844155844155796</v>
+        <v>0.57763975155279501</v>
       </c>
       <c r="R526">
-        <v>0.71621621621621601</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="T526">
         <v>0.75</v>
@@ -23631,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="H527">
-        <v>8.7719298245614002E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="J527">
         <v>0.168831168831168</v>
       </c>
       <c r="L527">
-        <v>0.29473684210526302</v>
+        <v>0.30927835051546299</v>
       </c>
       <c r="N527">
-        <v>0.42937853107344598</v>
+        <v>0.45</v>
       </c>
       <c r="P527">
-        <v>0.57142857142857095</v>
+        <v>0.59523809523809501</v>
       </c>
       <c r="R527">
-        <v>0.73972602739726001</v>
+        <v>0.75</v>
       </c>
       <c r="T527">
         <v>0.77777777777777701</v>
@@ -23666,28 +23730,28 @@
         <v>0</v>
       </c>
       <c r="H528">
-        <v>8.4745762711864403E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J528">
         <v>0.177215189873417</v>
       </c>
       <c r="L528">
-        <v>0.28717948717948699</v>
+        <v>0.30150753768844202</v>
       </c>
       <c r="N528">
-        <v>0.42934782608695599</v>
+        <v>0.44919786096256598</v>
       </c>
       <c r="P528">
-        <v>0.57831325301204795</v>
+        <v>0.59770114942528696</v>
       </c>
       <c r="R528">
-        <v>0.73684210526315697</v>
+        <v>0.746835443037974</v>
       </c>
       <c r="T528">
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44408</v>
       </c>
@@ -23701,28 +23765,28 @@
         <v>0</v>
       </c>
       <c r="H529">
-        <v>9.6774193548387094E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="J529">
         <v>0.202380952380952</v>
       </c>
       <c r="L529">
-        <v>0.27586206896551702</v>
+        <v>0.28985507246376802</v>
       </c>
       <c r="N529">
-        <v>0.43915343915343902</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="P529">
-        <v>0.58823529411764697</v>
+        <v>0.60674157303370702</v>
       </c>
       <c r="R529">
-        <v>0.707317073170731</v>
+        <v>0.71764705882352897</v>
       </c>
       <c r="T529">
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44409</v>
       </c>
@@ -23736,28 +23800,28 @@
         <v>0</v>
       </c>
       <c r="H530">
-        <v>0.12121212121212099</v>
+        <v>0.11764705882352899</v>
       </c>
       <c r="J530">
         <v>0.19767441860465099</v>
       </c>
       <c r="L530">
-        <v>0.27142857142857102</v>
+        <v>0.28504672897196198</v>
       </c>
       <c r="N530">
-        <v>0.43147208121827402</v>
+        <v>0.45</v>
       </c>
       <c r="P530">
-        <v>0.58381502890173398</v>
+        <v>0.60773480662983403</v>
       </c>
       <c r="R530">
-        <v>0.71604938271604901</v>
+        <v>0.71764705882352897</v>
       </c>
       <c r="T530">
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44410</v>
       </c>
@@ -23771,28 +23835,28 @@
         <v>0</v>
       </c>
       <c r="H531">
-        <v>0.119402985074626</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="J531">
         <v>0.19101123595505601</v>
       </c>
       <c r="L531">
-        <v>0.27522935779816499</v>
+        <v>0.29279279279279202</v>
       </c>
       <c r="N531">
-        <v>0.43137254901960698</v>
+        <v>0.44927536231884002</v>
       </c>
       <c r="P531">
-        <v>0.57777777777777695</v>
+        <v>0.60106382978723405</v>
       </c>
       <c r="R531">
-        <v>0.71951219512195097</v>
+        <v>0.72093023255813904</v>
       </c>
       <c r="T531">
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44411</v>
       </c>
@@ -23806,28 +23870,28 @@
         <v>0</v>
       </c>
       <c r="H532">
-        <v>0.123076923076923</v>
+        <v>0.119402985074626</v>
       </c>
       <c r="J532">
-        <v>0.19101123595505601</v>
+        <v>0.2</v>
       </c>
       <c r="L532">
-        <v>0.27876106194690198</v>
+        <v>0.3</v>
       </c>
       <c r="N532">
-        <v>0.43601895734597101</v>
+        <v>0.45539906103286298</v>
       </c>
       <c r="P532">
-        <v>0.57671957671957597</v>
+        <v>0.60301507537688404</v>
       </c>
       <c r="R532">
-        <v>0.71764705882352897</v>
+        <v>0.71910112359550504</v>
       </c>
       <c r="T532">
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44412</v>
       </c>
@@ -23841,28 +23905,28 @@
         <v>0</v>
       </c>
       <c r="H533">
-        <v>0.123076923076923</v>
+        <v>0.119402985074626</v>
       </c>
       <c r="J533">
-        <v>0.21505376344086</v>
+        <v>0.22340425531914801</v>
       </c>
       <c r="L533">
-        <v>0.28571428571428498</v>
+        <v>0.30638297872340398</v>
       </c>
       <c r="N533">
-        <v>0.44642857142857101</v>
+        <v>0.46460176991150398</v>
       </c>
       <c r="P533">
-        <v>0.58883248730964399</v>
+        <v>0.61057692307692302</v>
       </c>
       <c r="R533">
-        <v>0.71590909090909005</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="T533">
         <v>0.75</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44413</v>
       </c>
@@ -23876,28 +23940,28 @@
         <v>0</v>
       </c>
       <c r="H534">
-        <v>0.134328358208955</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="J534">
-        <v>0.21052631578947301</v>
+        <v>0.21875</v>
       </c>
       <c r="L534">
-        <v>0.28389830508474501</v>
+        <v>0.3125</v>
       </c>
       <c r="N534">
-        <v>0.443965517241379</v>
+        <v>0.46581196581196499</v>
       </c>
       <c r="P534">
-        <v>0.58415841584158401</v>
+        <v>0.61032863849765195</v>
       </c>
       <c r="R534">
-        <v>0.71910112359550504</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="T534">
         <v>0.75</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44414</v>
       </c>
@@ -23911,28 +23975,28 @@
         <v>0</v>
       </c>
       <c r="H535">
-        <v>0.134328358208955</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="J535">
-        <v>0.20833333333333301</v>
+        <v>0.21875</v>
       </c>
       <c r="L535">
-        <v>0.276422764227642</v>
+        <v>0.31075697211155301</v>
       </c>
       <c r="N535">
-        <v>0.44583333333333303</v>
+        <v>0.47520661157024702</v>
       </c>
       <c r="P535">
-        <v>0.59605911330049199</v>
+        <v>0.61395348837209296</v>
       </c>
       <c r="R535">
-        <v>0.71111111111111103</v>
+        <v>0.72043010752688097</v>
       </c>
       <c r="T535">
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44415</v>
       </c>
@@ -23946,28 +24010,28 @@
         <v>0</v>
       </c>
       <c r="H536">
-        <v>0.13636363636363599</v>
+        <v>0.13235294117647001</v>
       </c>
       <c r="J536">
-        <v>0.21782178217821699</v>
+        <v>0.23529411764705799</v>
       </c>
       <c r="L536">
-        <v>0.27490039840637398</v>
+        <v>0.30739299610894899</v>
       </c>
       <c r="N536">
-        <v>0.436</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="P536">
-        <v>0.59523809523809501</v>
+        <v>0.61711711711711703</v>
       </c>
       <c r="R536">
-        <v>0.70652173913043403</v>
+        <v>0.72631578947368403</v>
       </c>
       <c r="T536">
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44416</v>
       </c>
@@ -23981,28 +24045,28 @@
         <v>0</v>
       </c>
       <c r="H537">
-        <v>0.119402985074626</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="J537">
-        <v>0.22115384615384601</v>
+        <v>0.24761904761904699</v>
       </c>
       <c r="L537">
-        <v>0.27490039840637398</v>
+        <v>0.31007751937984401</v>
       </c>
       <c r="N537">
-        <v>0.42145593869731801</v>
+        <v>0.475285171102661</v>
       </c>
       <c r="P537">
-        <v>0.58986175115207296</v>
+        <v>0.611353711790393</v>
       </c>
       <c r="R537">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="T537">
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44417</v>
       </c>
@@ -24016,28 +24080,28 @@
         <v>0</v>
       </c>
       <c r="H538">
-        <v>0.115942028985507</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="J538">
-        <v>0.223300970873786</v>
+        <v>0.24761904761904699</v>
       </c>
       <c r="L538">
-        <v>0.26848249027237298</v>
+        <v>0.30451127819548801</v>
       </c>
       <c r="N538">
-        <v>0.41758241758241699</v>
+        <v>0.47463768115942001</v>
       </c>
       <c r="P538">
-        <v>0.58035714285714202</v>
+        <v>0.61016949152542299</v>
       </c>
       <c r="R538">
-        <v>0.67676767676767602</v>
+        <v>0.68932038834951403</v>
       </c>
       <c r="T538">
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44418</v>
       </c>
@@ -24051,28 +24115,28 @@
         <v>0</v>
       </c>
       <c r="H539">
-        <v>0.12676056338028099</v>
+        <v>0.125</v>
       </c>
       <c r="J539">
-        <v>0.21100917431192601</v>
+        <v>0.23423423423423401</v>
       </c>
       <c r="L539">
-        <v>0.26717557251908303</v>
+        <v>0.30627306273062699</v>
       </c>
       <c r="N539">
-        <v>0.414545454545454</v>
+        <v>0.473118279569892</v>
       </c>
       <c r="P539">
-        <v>0.57264957264957195</v>
+        <v>0.60569105691056901</v>
       </c>
       <c r="R539">
-        <v>0.67676767676767602</v>
+        <v>0.68932038834951403</v>
       </c>
       <c r="T539">
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44419</v>
       </c>
@@ -24086,28 +24150,28 @@
         <v>0</v>
       </c>
       <c r="H540">
-        <v>0.128571428571428</v>
+        <v>0.12676056338028099</v>
       </c>
       <c r="J540">
-        <v>0.21621621621621601</v>
+        <v>0.23684210526315699</v>
       </c>
       <c r="L540">
-        <v>0.26119402985074602</v>
+        <v>0.30465949820788502</v>
       </c>
       <c r="N540">
-        <v>0.39298245614034999</v>
+        <v>0.45674740484428999</v>
       </c>
       <c r="P540">
-        <v>0.56666666666666599</v>
+        <v>0.59920634920634896</v>
       </c>
       <c r="R540">
-        <v>0.67647058823529405</v>
+        <v>0.68867924528301805</v>
       </c>
       <c r="T540">
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44420</v>
       </c>
@@ -24118,273 +24182,273 @@
         <v>0</v>
       </c>
       <c r="F541">
-        <v>4.3478260869565202E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="H541">
-        <v>0.125</v>
+        <v>0.123287671232876</v>
       </c>
       <c r="J541">
-        <v>0.20535714285714199</v>
+        <v>0.24137931034482701</v>
       </c>
       <c r="L541">
-        <v>0.26102941176470501</v>
+        <v>0.307420494699646</v>
       </c>
       <c r="N541">
-        <v>0.38831615120274898</v>
+        <v>0.454237288135593</v>
       </c>
       <c r="P541">
-        <v>0.55870445344129505</v>
+        <v>0.59302325581395299</v>
       </c>
       <c r="R541">
-        <v>0.68627450980392102</v>
+        <v>0.69811320754716899</v>
       </c>
       <c r="T541">
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44421</v>
       </c>
-      <c r="C542">
-        <v>0</v>
-      </c>
-      <c r="E542">
-        <v>0</v>
-      </c>
-      <c r="G542">
-        <v>4.3478260869565202E-2</v>
-      </c>
-      <c r="I542">
-        <v>0.13157894736842099</v>
-      </c>
-      <c r="K542">
-        <v>0.2</v>
-      </c>
-      <c r="M542">
-        <v>0.25724637681159401</v>
-      </c>
-      <c r="O542">
-        <v>0.37755102040816302</v>
-      </c>
-      <c r="Q542">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="S542">
-        <v>0.67619047619047601</v>
-      </c>
-      <c r="U542">
-        <v>0.52941176470588203</v>
-      </c>
-    </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="H542">
+        <v>0.129870129870129</v>
+      </c>
+      <c r="J542">
+        <v>0.23529411764705799</v>
+      </c>
+      <c r="L542">
+        <v>0.30902777777777701</v>
+      </c>
+      <c r="N542">
+        <v>0.45</v>
+      </c>
+      <c r="P542">
+        <v>0.58712121212121204</v>
+      </c>
+      <c r="R542">
+        <v>0.68807339449541205</v>
+      </c>
+      <c r="T542">
+        <v>0.58823529411764697</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44422</v>
       </c>
-      <c r="C543">
-        <v>0</v>
-      </c>
-      <c r="E543">
-        <v>0</v>
-      </c>
-      <c r="G543">
-        <v>4.1666666666666602E-2</v>
-      </c>
-      <c r="I543">
-        <v>0.125</v>
-      </c>
-      <c r="K543">
-        <v>0.188034188034188</v>
-      </c>
-      <c r="M543">
-        <v>0.24909747292418699</v>
-      </c>
-      <c r="O543">
-        <v>0.37748344370860898</v>
-      </c>
-      <c r="Q543">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="S543">
-        <v>0.660377358490566</v>
-      </c>
-      <c r="U543">
-        <v>0.52941176470588203</v>
-      </c>
-    </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0.04</v>
+      </c>
+      <c r="H543">
+        <v>0.12345679012345601</v>
+      </c>
+      <c r="J543">
+        <v>0.22131147540983601</v>
+      </c>
+      <c r="L543">
+        <v>0.30795847750865002</v>
+      </c>
+      <c r="N543">
+        <v>0.45631067961165001</v>
+      </c>
+      <c r="P543">
+        <v>0.58490566037735803</v>
+      </c>
+      <c r="R543">
+        <v>0.67272727272727195</v>
+      </c>
+      <c r="T543">
+        <v>0.58823529411764697</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44423</v>
       </c>
-      <c r="C544">
-        <v>0</v>
-      </c>
-      <c r="E544">
-        <v>0</v>
-      </c>
-      <c r="G544">
-        <v>4.1666666666666602E-2</v>
-      </c>
-      <c r="I544">
-        <v>0.1125</v>
-      </c>
-      <c r="K544">
-        <v>0.186440677966101</v>
-      </c>
-      <c r="M544">
-        <v>0.24909747292418699</v>
-      </c>
-      <c r="O544">
-        <v>0.37133550488599298</v>
-      </c>
-      <c r="Q544">
-        <v>0.54901960784313697</v>
-      </c>
-      <c r="S544">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="U544">
-        <v>0.52941176470588203</v>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0.04</v>
+      </c>
+      <c r="H544">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="J544">
+        <v>0.219512195121951</v>
+      </c>
+      <c r="L544">
+        <v>0.30795847750865002</v>
+      </c>
+      <c r="N544">
+        <v>0.45079365079365002</v>
+      </c>
+      <c r="P544">
+        <v>0.58888888888888802</v>
+      </c>
+      <c r="R544">
+        <v>0.66371681415929196</v>
+      </c>
+      <c r="T544">
+        <v>0.58823529411764697</v>
       </c>
     </row>
     <row r="545" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44424</v>
       </c>
-      <c r="C545">
-        <v>0</v>
-      </c>
-      <c r="E545">
-        <v>0</v>
-      </c>
-      <c r="G545">
-        <v>0.04</v>
-      </c>
-      <c r="I545">
-        <v>0.10126582278481</v>
-      </c>
-      <c r="K545">
-        <v>0.17460317460317401</v>
-      </c>
-      <c r="M545">
-        <v>0.23843416370106699</v>
-      </c>
-      <c r="O545">
-        <v>0.36741214057507898</v>
-      </c>
-      <c r="Q545">
-        <v>0.54901960784313697</v>
-      </c>
-      <c r="S545">
-        <v>0.63302752293577902</v>
-      </c>
-      <c r="U545">
-        <v>0.52941176470588203</v>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>3.8461538461538401E-2</v>
+      </c>
+      <c r="H545">
+        <v>0.1</v>
+      </c>
+      <c r="J545">
+        <v>0.20610687022900701</v>
+      </c>
+      <c r="L545">
+        <v>0.30169491525423697</v>
+      </c>
+      <c r="N545">
+        <v>0.447204968944099</v>
+      </c>
+      <c r="P545">
+        <v>0.59107806691449805</v>
+      </c>
+      <c r="R545">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="T545">
+        <v>0.58823529411764697</v>
       </c>
     </row>
     <row r="546" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44425</v>
       </c>
-      <c r="C546">
-        <v>0</v>
-      </c>
-      <c r="E546">
-        <v>0</v>
-      </c>
-      <c r="G546">
-        <v>3.8461538461538401E-2</v>
-      </c>
-      <c r="I546">
-        <v>9.8765432098765399E-2</v>
-      </c>
-      <c r="K546">
-        <v>0.16923076923076899</v>
-      </c>
-      <c r="M546">
-        <v>0.23344947735191601</v>
-      </c>
-      <c r="O546">
-        <v>0.360759493670886</v>
-      </c>
-      <c r="Q546">
-        <v>0.54263565891472798</v>
-      </c>
-      <c r="S546">
-        <v>0.62385321100917401</v>
-      </c>
-      <c r="U546">
-        <v>0.52941176470588203</v>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="H546">
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="J546">
+        <v>0.20437956204379501</v>
+      </c>
+      <c r="L546">
+        <v>0.29568106312292303</v>
+      </c>
+      <c r="N546">
+        <v>0.44307692307692298</v>
+      </c>
+      <c r="P546">
+        <v>0.59706959706959695</v>
+      </c>
+      <c r="R546">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="T546">
+        <v>0.58823529411764697</v>
       </c>
     </row>
     <row r="547" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44426</v>
       </c>
-      <c r="C547">
-        <v>0</v>
-      </c>
-      <c r="E547">
-        <v>0</v>
-      </c>
-      <c r="G547">
-        <v>3.8461538461538401E-2</v>
-      </c>
-      <c r="I547">
-        <v>9.8765432098765399E-2</v>
-      </c>
-      <c r="K547">
-        <v>0.162962962962962</v>
-      </c>
-      <c r="M547">
-        <v>0.231578947368421</v>
-      </c>
-      <c r="O547">
-        <v>0.359133126934984</v>
-      </c>
-      <c r="Q547">
-        <v>0.53725490196078396</v>
-      </c>
-      <c r="S547">
-        <v>0.6</v>
-      </c>
-      <c r="U547">
-        <v>0.55555555555555503</v>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="H547">
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="J547">
+        <v>0.20422535211267601</v>
+      </c>
+      <c r="L547">
+        <v>0.29666666666666602</v>
+      </c>
+      <c r="N547">
+        <v>0.43975903614457801</v>
+      </c>
+      <c r="P547">
+        <v>0.592592592592592</v>
+      </c>
+      <c r="R547">
+        <v>0.62931034482758597</v>
+      </c>
+      <c r="T547">
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="548" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44427</v>
       </c>
-      <c r="C548">
-        <v>0</v>
-      </c>
-      <c r="E548">
-        <v>0</v>
-      </c>
-      <c r="G548">
-        <v>3.8461538461538401E-2</v>
-      </c>
-      <c r="I548">
-        <v>9.8765432098765399E-2</v>
-      </c>
-      <c r="K548">
-        <v>0.14925373134328301</v>
-      </c>
-      <c r="M548">
-        <v>0.228873239436619</v>
-      </c>
-      <c r="O548">
-        <v>0.35474006116207901</v>
-      </c>
-      <c r="Q548">
-        <v>0.51737451737451701</v>
-      </c>
-      <c r="S548">
-        <v>0.6</v>
-      </c>
-      <c r="U548">
-        <v>0.55555555555555503</v>
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="H548">
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="J548">
+        <v>0.190140845070422</v>
+      </c>
+      <c r="L548">
+        <v>0.29568106312292303</v>
+      </c>
+      <c r="N548">
+        <v>0.44411764705882301</v>
+      </c>
+      <c r="P548">
+        <v>0.58181818181818101</v>
+      </c>
+      <c r="R548">
+        <v>0.62931034482758597</v>
+      </c>
+      <c r="T548">
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="549" spans="1:21" x14ac:dyDescent="0.2">
@@ -24398,238 +24462,238 @@
         <v>0</v>
       </c>
       <c r="G549">
-        <v>4.1666666666666602E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I549">
-        <v>0.10256410256410201</v>
+        <v>0.1</v>
       </c>
       <c r="K549">
-        <v>0.146153846153846</v>
+        <v>0.188405797101449</v>
       </c>
       <c r="M549">
-        <v>0.21830985915492901</v>
+        <v>0.28289473684210498</v>
       </c>
       <c r="O549">
-        <v>0.35168195718654399</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="Q549">
-        <v>0.50191570881226</v>
+        <v>0.56834532374100699</v>
       </c>
       <c r="S549">
-        <v>0.59459459459459396</v>
+        <v>0.62711864406779605</v>
       </c>
       <c r="U549">
-        <v>0.58823529411764697</v>
+        <v>0.64705882352941102</v>
       </c>
     </row>
     <row r="550" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44429</v>
       </c>
-      <c r="C550" t="s">
-        <v>1</v>
-      </c>
-      <c r="E550" t="s">
-        <v>1</v>
-      </c>
-      <c r="G550" t="s">
-        <v>1</v>
-      </c>
-      <c r="I550" t="s">
-        <v>1</v>
-      </c>
-      <c r="K550" t="s">
-        <v>1</v>
-      </c>
-      <c r="M550" t="s">
-        <v>1</v>
-      </c>
-      <c r="O550" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q550" t="s">
-        <v>1</v>
-      </c>
-      <c r="S550" t="s">
-        <v>1</v>
-      </c>
-      <c r="U550" t="s">
-        <v>1</v>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I550">
+        <v>8.9743589743589702E-2</v>
+      </c>
+      <c r="K550">
+        <v>0.194444444444444</v>
+      </c>
+      <c r="M550">
+        <v>0.28104575163398599</v>
+      </c>
+      <c r="O550">
+        <v>0.43839541547277899</v>
+      </c>
+      <c r="Q550">
+        <v>0.56428571428571395</v>
+      </c>
+      <c r="S550">
+        <v>0.62809917355371903</v>
+      </c>
+      <c r="U550">
+        <v>0.64705882352941102</v>
       </c>
     </row>
     <row r="551" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44430</v>
       </c>
-      <c r="C551" t="s">
-        <v>1</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1</v>
-      </c>
-      <c r="G551" t="s">
-        <v>1</v>
-      </c>
-      <c r="I551" t="s">
-        <v>1</v>
-      </c>
-      <c r="K551" t="s">
-        <v>1</v>
-      </c>
-      <c r="M551" t="s">
-        <v>1</v>
-      </c>
-      <c r="O551" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q551" t="s">
-        <v>1</v>
-      </c>
-      <c r="S551" t="s">
-        <v>1</v>
-      </c>
-      <c r="U551" t="s">
-        <v>1</v>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I551">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K551">
+        <v>0.194444444444444</v>
+      </c>
+      <c r="M551">
+        <v>0.28524590163934399</v>
+      </c>
+      <c r="O551">
+        <v>0.43589743589743501</v>
+      </c>
+      <c r="Q551">
+        <v>0.55123674911660703</v>
+      </c>
+      <c r="S551">
+        <v>0.62809917355371903</v>
+      </c>
+      <c r="U551">
+        <v>0.64705882352941102</v>
       </c>
     </row>
     <row r="552" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44431</v>
       </c>
-      <c r="C552" t="s">
-        <v>1</v>
-      </c>
-      <c r="E552" t="s">
-        <v>1</v>
-      </c>
-      <c r="G552" t="s">
-        <v>1</v>
-      </c>
-      <c r="I552" t="s">
-        <v>1</v>
-      </c>
-      <c r="K552" t="s">
-        <v>1</v>
-      </c>
-      <c r="M552" t="s">
-        <v>1</v>
-      </c>
-      <c r="O552" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q552" t="s">
-        <v>1</v>
-      </c>
-      <c r="S552" t="s">
-        <v>1</v>
-      </c>
-      <c r="U552" t="s">
-        <v>1</v>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I552">
+        <v>8.9743589743589702E-2</v>
+      </c>
+      <c r="K552">
+        <v>0.184931506849315</v>
+      </c>
+      <c r="M552">
+        <v>0.28064516129032202</v>
+      </c>
+      <c r="O552">
+        <v>0.43019943019943002</v>
+      </c>
+      <c r="Q552">
+        <v>0.54929577464788704</v>
+      </c>
+      <c r="S552">
+        <v>0.60504201680672198</v>
+      </c>
+      <c r="U552">
+        <v>0.64705882352941102</v>
       </c>
     </row>
     <row r="553" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44432</v>
       </c>
-      <c r="C553" t="s">
-        <v>1</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1</v>
-      </c>
-      <c r="G553" t="s">
-        <v>1</v>
-      </c>
-      <c r="I553" t="s">
-        <v>1</v>
-      </c>
-      <c r="K553" t="s">
-        <v>1</v>
-      </c>
-      <c r="M553" t="s">
-        <v>1</v>
-      </c>
-      <c r="O553" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q553" t="s">
-        <v>1</v>
-      </c>
-      <c r="S553" t="s">
-        <v>1</v>
-      </c>
-      <c r="U553" t="s">
-        <v>1</v>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I553">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K553">
+        <v>0.184931506849315</v>
+      </c>
+      <c r="M553">
+        <v>0.28064516129032202</v>
+      </c>
+      <c r="O553">
+        <v>0.424068767908309</v>
+      </c>
+      <c r="Q553">
+        <v>0.54385964912280704</v>
+      </c>
+      <c r="S553">
+        <v>0.59504132231404905</v>
+      </c>
+      <c r="U553">
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="554" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44433</v>
       </c>
-      <c r="C554" t="s">
-        <v>1</v>
-      </c>
-      <c r="E554" t="s">
-        <v>1</v>
-      </c>
-      <c r="G554" t="s">
-        <v>1</v>
-      </c>
-      <c r="I554" t="s">
-        <v>1</v>
-      </c>
-      <c r="K554" t="s">
-        <v>1</v>
-      </c>
-      <c r="M554" t="s">
-        <v>1</v>
-      </c>
-      <c r="O554" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q554" t="s">
-        <v>1</v>
-      </c>
-      <c r="S554" t="s">
-        <v>1</v>
-      </c>
-      <c r="U554" t="s">
-        <v>1</v>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>7.4074074074074001E-2</v>
+      </c>
+      <c r="I554">
+        <v>8.9743589743589702E-2</v>
+      </c>
+      <c r="K554">
+        <v>0.18620689655172401</v>
+      </c>
+      <c r="M554">
+        <v>0.27884615384615302</v>
+      </c>
+      <c r="O554">
+        <v>0.41643059490084899</v>
+      </c>
+      <c r="Q554">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="S554">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U554">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="555" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44434</v>
       </c>
-      <c r="C555" t="s">
-        <v>1</v>
-      </c>
-      <c r="E555" t="s">
-        <v>1</v>
-      </c>
-      <c r="G555" t="s">
-        <v>1</v>
-      </c>
-      <c r="I555" t="s">
-        <v>1</v>
-      </c>
-      <c r="K555" t="s">
-        <v>1</v>
-      </c>
-      <c r="M555" t="s">
-        <v>1</v>
-      </c>
-      <c r="O555" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q555" t="s">
-        <v>1</v>
-      </c>
-      <c r="S555" t="s">
-        <v>1</v>
-      </c>
-      <c r="U555" t="s">
-        <v>1</v>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>7.4074074074074001E-2</v>
+      </c>
+      <c r="I555">
+        <v>9.2105263157894704E-2</v>
+      </c>
+      <c r="K555">
+        <v>0.184931506849315</v>
+      </c>
+      <c r="M555">
+        <v>0.27508090614886699</v>
+      </c>
+      <c r="O555">
+        <v>0.41142857142857098</v>
+      </c>
+      <c r="Q555">
+        <v>0.53658536585365801</v>
+      </c>
+      <c r="S555">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U555">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="556" spans="1:21" x14ac:dyDescent="0.2">
@@ -25053,10 +25117,284 @@
       </c>
     </row>
     <row r="568" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A568" s="1"/>
+      <c r="A568" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1</v>
+      </c>
+      <c r="K568" t="s">
+        <v>1</v>
+      </c>
+      <c r="M568" t="s">
+        <v>1</v>
+      </c>
+      <c r="O568" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q568" t="s">
+        <v>1</v>
+      </c>
+      <c r="S568" t="s">
+        <v>1</v>
+      </c>
+      <c r="U568" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="569" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A569" s="1"/>
+      <c r="A569" s="1">
+        <v>44448</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1</v>
+      </c>
+      <c r="K569" t="s">
+        <v>1</v>
+      </c>
+      <c r="M569" t="s">
+        <v>1</v>
+      </c>
+      <c r="O569" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q569" t="s">
+        <v>1</v>
+      </c>
+      <c r="S569" t="s">
+        <v>1</v>
+      </c>
+      <c r="U569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44449</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1</v>
+      </c>
+      <c r="I570" t="s">
+        <v>1</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1</v>
+      </c>
+      <c r="O570" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q570" t="s">
+        <v>1</v>
+      </c>
+      <c r="S570" t="s">
+        <v>1</v>
+      </c>
+      <c r="U570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1</v>
+      </c>
+      <c r="K571" t="s">
+        <v>1</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1</v>
+      </c>
+      <c r="O571" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q571" t="s">
+        <v>1</v>
+      </c>
+      <c r="S571" t="s">
+        <v>1</v>
+      </c>
+      <c r="U571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1</v>
+      </c>
+      <c r="I572" t="s">
+        <v>1</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1</v>
+      </c>
+      <c r="O572" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q572" t="s">
+        <v>1</v>
+      </c>
+      <c r="S572" t="s">
+        <v>1</v>
+      </c>
+      <c r="U572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44452</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1</v>
+      </c>
+      <c r="K573" t="s">
+        <v>1</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1</v>
+      </c>
+      <c r="O573" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q573" t="s">
+        <v>1</v>
+      </c>
+      <c r="S573" t="s">
+        <v>1</v>
+      </c>
+      <c r="U573" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1</v>
+      </c>
+      <c r="I574" t="s">
+        <v>1</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1</v>
+      </c>
+      <c r="O574" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q574" t="s">
+        <v>1</v>
+      </c>
+      <c r="S574" t="s">
+        <v>1</v>
+      </c>
+      <c r="U574" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1</v>
+      </c>
+      <c r="I575" t="s">
+        <v>1</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1</v>
+      </c>
+      <c r="O575" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q575" t="s">
+        <v>1</v>
+      </c>
+      <c r="S575" t="s">
+        <v>1</v>
+      </c>
+      <c r="U575" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
